--- a/new_data/BS_continuous_hedge.xlsx
+++ b/new_data/BS_continuous_hedge.xlsx
@@ -380,1702 +380,1702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>-83.7621979216037</v>
+        <v>175.6958241033383</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>-80.94449866666686</v>
+        <v>1636.684608212535</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>275.042439981802</v>
+        <v>-61.91638362889943</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>402.9668487054037</v>
+        <v>679.8782031403857</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>65.04512454050429</v>
+        <v>1526.803823276525</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>216.370452188817</v>
+        <v>64.92711783427106</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>65.72158997909153</v>
+        <v>-180.4989270165152</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>684.5474354425364</v>
+        <v>803.35749344267</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>-701.2791866841521</v>
+        <v>681.3166234128041</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>-120.0711747047233</v>
+        <v>-380.2981628540737</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>511.8876378366151</v>
+        <v>719.2605052585922</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>1121.298432145837</v>
+        <v>21425.49840901336</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>43.64688635181801</v>
+        <v>21127.37479481972</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>786.8733348033552</v>
+        <v>20197.07199967741</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>1477.943857949007</v>
+        <v>-16769.72424906855</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>-135.3573015019834</v>
+        <v>18255.92272816678</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>-708.6161803189398</v>
+        <v>-25354.72975312007</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>983.0203489938649</v>
+        <v>25350.68479053215</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>71.1834494619543</v>
+        <v>-24449.21811668757</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>1964.871620570715</v>
+        <v>23392.43354708282</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>235.6494356245712</v>
+        <v>26764.70174612432</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>367.0579865300286</v>
+        <v>26780.42360538577</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>552.6982070265002</v>
+        <v>25196.32485405006</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>720.6399826523948</v>
+        <v>25204.14907362301</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>766.1837837239449</v>
+        <v>25409.62758542622</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>-618.4787242611465</v>
+        <v>-24675.23699430662</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>942.0349009081722</v>
+        <v>24741.08409133053</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>2041.706566638257</v>
+        <v>23031.28149044796</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>1992.318611928054</v>
+        <v>22657.34654141241</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>467.0123347675835</v>
+        <v>-19293.25495971829</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>-114.3376018125468</v>
+        <v>18065.7942343832</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>-320.3428945707025</v>
+        <v>-128.3074567559929</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>1286.34595829171</v>
+        <v>-8744.108793811616</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>1054.450482995761</v>
+        <v>9433.030744450711</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>1649.75186723685</v>
+        <v>7745.157938317736</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>1415.555107890794</v>
+        <v>8149.613147871403</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>941.5706651711034</v>
+        <v>7672.540278341673</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>3239.401817142621</v>
+        <v>7326.806201013845</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>-1117.097622787683</v>
+        <v>447.1256736686883</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>393.6457964740758</v>
+        <v>-1282.915178386991</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>701.7915331025756</v>
+        <v>-208.4550086342579</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>531.3114092533697</v>
+        <v>1495.171746771757</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>113.9144766951188</v>
+        <v>12214.06967721284</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>1925.590658500495</v>
+        <v>10568.1364834255</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>781.671586645488</v>
+        <v>-10452.82896183153</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>-513.9548655684227</v>
+        <v>-12068.1453649286</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>105.4687138790235</v>
+        <v>-12513.35787189697</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>449.4548000648604</v>
+        <v>-12758.0963823265</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>560.2735932190457</v>
+        <v>-14142.92883029818</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>488.8276359804055</v>
+        <v>-13935.55529884798</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>196.6512829973895</v>
+        <v>4142.100138158436</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>-571.9055908160426</v>
+        <v>2250.141430382528</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>505.8138411875784</v>
+        <v>-12110.7707270639</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>901.6709348684709</v>
+        <v>-10107.11372866834</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>822.155576660239</v>
+        <v>-10882.42531189658</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>348.9753246053491</v>
+        <v>-10288.35803749774</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>1040.554415485362</v>
+        <v>-12502.97023990158</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1451.187908561052</v>
+        <v>-12249.43423891311</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>1504.171681188397</v>
+        <v>-11777.65803174385</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>-1558.66469697249</v>
+        <v>2137.691765305894</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>1626.149786152027</v>
+        <v>2119.448764869785</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>2640.39463172864</v>
+        <v>995.5582188244011</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>-73.04919649260434</v>
+        <v>-5159.009102950304</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>36.85013216789302</v>
+        <v>-2954.796301092816</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>240.3474980962354</v>
+        <v>3634.065559391003</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>-144.1962997764664</v>
+        <v>18433.31787962574</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>551.2913350068214</v>
+        <v>-366.3387358638303</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>640.106557893865</v>
+        <v>-16678.61752990134</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>848.3261449688285</v>
+        <v>-16745.21112194228</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>656.855484119032</v>
+        <v>-16774.43804280492</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>1124.971163959459</v>
+        <v>-17528.51604586546</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>794.9631089680568</v>
+        <v>-18664.82212610011</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>703.3377017974403</v>
+        <v>-4209.286025869027</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>235.9424680039083</v>
+        <v>-4736.069987804226</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>203.4620596299433</v>
+        <v>-5347.357001159749</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>185.519251227242</v>
+        <v>4105.202063818945</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>106.5980870425859</v>
+        <v>732.6697548514544</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>181.4982262198298</v>
+        <v>959.6414485650665</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>359.1500378841562</v>
+        <v>1248.614934223114</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>211.9472574603934</v>
+        <v>-5488.108994359799</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>-224.5844891302284</v>
+        <v>-5112.117565104663</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>-223.9853621766434</v>
+        <v>-4798.854004825444</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>541.6911896322346</v>
+        <v>-5119.458767489281</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>-454.2634683189825</v>
+        <v>-4521.920076826138</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>-364.2152706494031</v>
+        <v>4708.511053835109</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>-259.3099582343724</v>
+        <v>-10153.19447944163</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>-237.4486188388153</v>
+        <v>-10302.15527657032</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>-948.1614789925775</v>
+        <v>-2318.257824277188</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>-665.6927352752637</v>
+        <v>-7141.681976655547</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>-131.0203969449788</v>
+        <v>6275.379653389157</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>-16.64378819251484</v>
+        <v>5321.815707360173</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>-118.165108036883</v>
+        <v>-11599.71722489313</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>-129.1616194763676</v>
+        <v>-5930.88852982884</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>276.0937719110703</v>
+        <v>10468.20131175363</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>25.34025959874163</v>
+        <v>8335.361830303558</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>772.752627894421</v>
+        <v>-9348.306404167779</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>-692.8861445651365</v>
+        <v>-8422.30177679953</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>-519.371858766551</v>
+        <v>-2461.201182333861</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>-33.02112906061772</v>
+        <v>-47.24614325447424</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>215.3447433507337</v>
+        <v>-466.0488718728102</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>-95.07768285350267</v>
+        <v>-64.76700330201363</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>175.3069081041153</v>
+        <v>-368.4524049953787</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>35.29936764536019</v>
+        <v>-232.4301625806842</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>164.273402719625</v>
+        <v>1397.170019902094</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>214.881176406796</v>
+        <v>1424.945974600671</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>-131.942819464849</v>
+        <v>2587.302935422475</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>61.03470926518214</v>
+        <v>-97.72399283781408</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>1032.003082978339</v>
+        <v>6195.880403155104</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>28.26507016476654</v>
+        <v>3361.581245774542</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>87.28114910676497</v>
+        <v>3697.276399546931</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>196.4351241040596</v>
+        <v>3304.873679178008</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>-79.48902263525748</v>
+        <v>1024.552877474892</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>-97.58772114388306</v>
+        <v>1346.490548614898</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>-371.8373715514592</v>
+        <v>1758.938795533668</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>-79.33283059361054</v>
+        <v>-460.6980963436084</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>-104.0639781115298</v>
+        <v>80.79251223302218</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>-209.638135321517</v>
+        <v>1436.007868451568</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>-276.3848308824248</v>
+        <v>1451.381357840475</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>35.51877988410495</v>
+        <v>46.10920884112026</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>-386.5454789078909</v>
+        <v>1514.972104952227</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>-267.0160547587028</v>
+        <v>1434.75138116486</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>-358.3513426487485</v>
+        <v>1659.212559613159</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>-480.4311184493877</v>
+        <v>1685.409483047895</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>-445.1109777330579</v>
+        <v>1605.132092673946</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>-63.59316384784779</v>
+        <v>-69653.15620725995</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>-92.67678028740829</v>
+        <v>-71036.49008082684</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>39.43601305805669</v>
+        <v>-69899.9265612957</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>459.515716930471</v>
+        <v>-69255.6037380459</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>287.5594903966101</v>
+        <v>-72420.97970189755</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>-60.19911628228283</v>
+        <v>72866.35123082799</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>-53.33832905080625</v>
+        <v>-62973.74615482707</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>492.7514547764274</v>
+        <v>64853.95392817874</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>-154.4733350390524</v>
+        <v>-64404.5917791266</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>-101.3773913539671</v>
+        <v>-61961.19696993348</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>-47.7990318899062</v>
+        <v>-61752.70787354576</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>4.605830512119809</v>
+        <v>-61817.03236408668</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>29.7087265466802</v>
+        <v>-62956.1913799937</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>111.2648137903445</v>
+        <v>-65529.81441120365</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>85.5452317165043</v>
+        <v>-65011.42331081985</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>382.133114428409</v>
+        <v>-66739.39818774394</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>-108.5364968258441</v>
+        <v>-67040.44159621948</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>303.2979215727428</v>
+        <v>-60600.13632679018</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>-454.0947232583933</v>
+        <v>-62044.09968617209</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>373.5064224076398</v>
+        <v>-63066.51095976224</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>619.4571403106918</v>
+        <v>-58598.12817767851</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>663.7402684367647</v>
+        <v>-59586.62655836904</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>633.2885811017575</v>
+        <v>-57384.51928153013</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>-582.3558618316031</v>
+        <v>-57231.88842087207</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>181.4216396269023</v>
+        <v>-53308.79684321747</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>333.0391000184033</v>
+        <v>56973.05293826568</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>63.44533391333501</v>
+        <v>443.3282216772228</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>163.460731127011</v>
+        <v>-503.9853088580418</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>-647.4900303782481</v>
+        <v>-65358.43293982363</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>728.5869997614673</v>
+        <v>-65399.32336828789</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>663.2234890354014</v>
+        <v>-69225.23410339891</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>867.4416983320249</v>
+        <v>-69747.04631219861</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>-128.1783249443055</v>
+        <v>-70619.34980970008</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>550.6303738297821</v>
+        <v>-71062.13981636174</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>371.5037812626572</v>
+        <v>1067.411542824839</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>499.8770154464476</v>
+        <v>512.8738144851243</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>693.9268050104182</v>
+        <v>474.1101965700758</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>-404.731173084485</v>
+        <v>-62.52804797386646</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>583.6609963047467</v>
+        <v>-515.0337169072299</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>493.5061653832886</v>
+        <v>-216.9897946651178</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>380.7593147344777</v>
+        <v>-1033.176786979199</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>448.7381795232703</v>
+        <v>-995.8167462313</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>304.7209066030877</v>
+        <v>-595.8272090717743</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>-235.091230092821</v>
+        <v>-719.427264343989</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>-428.2520247527634</v>
+        <v>-66375.45507868864</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>-327.5658926440701</v>
+        <v>-63689.21639957195</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>-319.0683091701529</v>
+        <v>-63447.13608990042</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>383.5063708027255</v>
+        <v>-69065.76411470772</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>187.6067367631986</v>
+        <v>-69126.50694328558</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>155.1944918270018</v>
+        <v>-69113.26276788687</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>-68.46161106403295</v>
+        <v>4060.964118868987</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>-57.54864713088745</v>
+        <v>3671.8942398512</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>-109.0907054456804</v>
+        <v>3718.973181380048</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>-31.65665405995015</v>
+        <v>3617.514925544264</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>-177.5371239777887</v>
+        <v>3857.203711940399</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>-57.89363925981266</v>
+        <v>1454.805194294936</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>-520.032027318928</v>
+        <v>4066.033108808737</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>545.0874470782185</v>
+        <v>58137.15633474453</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>215.7473566434132</v>
+        <v>74976.46269141141</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>374.8417321461313</v>
+        <v>72250.2505718313</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>714.8629655624026</v>
+        <v>-76109.97648213459</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>806.4836471662843</v>
+        <v>-75594.68265538603</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>-373.8090220507409</v>
+        <v>-76112.22884646115</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>-266.7187258408274</v>
+        <v>-82628.91066655212</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>-256.4751294933471</v>
+        <v>-83108.63322990754</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>-318.5976460283156</v>
+        <v>-83042.2071126572</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>-556.065311351102</v>
+        <v>6550.744324002428</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>-666.6110013650482</v>
+        <v>6655.838244382527</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>-624.9294210694677</v>
+        <v>6590.141185089575</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>1188.947378014729</v>
+        <v>53282.87635369063</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>1568.885658068099</v>
+        <v>53661.27087628212</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>1849.394707476808</v>
+        <v>67073.60848047893</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>62.46706464478257</v>
+        <v>4341.329580639098</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>760.516024380612</v>
+        <v>-1886.972517793447</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>365.1278972719659</v>
+        <v>4100.431386893717</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>-184.6751429726248</v>
+        <v>4004.226925376871</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>421.1528558827265</v>
+        <v>3739.769750873415</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>640.3608326100217</v>
+        <v>2722.896701910222</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>325.959909345869</v>
+        <v>2583.945318055446</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>167.2690408395661</v>
+        <v>3920.442467774585</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>265.9586284829231</v>
+        <v>4789.974057344942</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>411.6614441008991</v>
+        <v>3842.149249779965</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>249.8214240013089</v>
+        <v>4047.21412004988</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>233.4375534575171</v>
+        <v>4725.947041672586</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>149.0549653025187</v>
+        <v>3834.177244837204</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>228.5201200827455</v>
+        <v>3756.797104476536</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>-17.29805126846697</v>
+        <v>-78588.44480212404</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>-362.4003713068254</v>
+        <v>-64411.8902506596</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>520.438106500609</v>
+        <v>-64497.32597069785</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>-359.4377018047679</v>
+        <v>-64163.52210973461</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>-437.2584161056917</v>
+        <v>-64371.54835056688</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>498.2220047573271</v>
+        <v>-64608.72430326464</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>164.1874256301857</v>
+        <v>6871.812824046794</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>187.4723637700868</v>
+        <v>4233.660040159478</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>-282.7325215997824</v>
+        <v>2973.469550135002</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>375.1452321413219</v>
+        <v>1142.328670810355</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>420.1826067190045</v>
+        <v>1860.255774589007</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>68.54306271395322</v>
+        <v>3122.955289080208</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>-36.817040887967</v>
+        <v>3011.725555305217</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>60.7789756411951</v>
+        <v>2954.889335555523</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>162.6021609193915</v>
+        <v>4782.251094320824</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>153.2521618520314</v>
+        <v>4683.052439124019</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>189.5431551041765</v>
+        <v>3849.588824270269</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>-120.3913506486278</v>
+        <v>4367.52591877858</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>250.1861184711703</v>
+        <v>1115.527826603289</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>-55.74859611492475</v>
+        <v>3079.700650786086</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>-93.8071193066549</v>
+        <v>2907.735647059994</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>-234.4673253234856</v>
+        <v>3964.222771813203</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>82.49083037779855</v>
+        <v>4550.121127057706</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>206.2789913641378</v>
+        <v>36729.30258890843</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>175.4738599092544</v>
+        <v>36566.76664924301</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>102.1261898905842</v>
+        <v>33716.23328965434</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>307.2656423967684</v>
+        <v>35510.22628128005</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>261.2306899945903</v>
+        <v>35320.91689991107</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>204.9641004554967</v>
+        <v>35451.67561795622</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>230.2946401744737</v>
+        <v>32381.35432058492</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>-52.54216998735907</v>
+        <v>21099.60607312936</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>-110.4955563375414</v>
+        <v>-1273.826407047432</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>269.5331838605799</v>
+        <v>37419.68629393784</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>204.8694689881117</v>
+        <v>34140.92573318586</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>106.7046028914881</v>
+        <v>34629.50137458106</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>121.2762567909656</v>
+        <v>31458.11812163347</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>-8.07813534006223</v>
+        <v>31842.53865965343</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>11.59545819676555</v>
+        <v>-1304.428792343776</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>160.3755815974793</v>
+        <v>35641.6889703314</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>34.88747876661813</v>
+        <v>36433.9230253335</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>-305.1266163330445</v>
+        <v>35560.18800858265</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>-271.4193592342111</v>
+        <v>3607.748282941442</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>-194.447965252391</v>
+        <v>-3298.328610564371</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>-548.6758985765971</v>
+        <v>36256.57336197867</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>-738.616507080718</v>
+        <v>23481.9977868329</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>-717.3468918099201</v>
+        <v>-1290.965912652507</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>-741.7935707837427</v>
+        <v>-573.2096826619248</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>-760.3435247034708</v>
+        <v>-7.049020617585576</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>-794.3198436770112</v>
+        <v>774.453110485788</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>-783.4359589490282</v>
+        <v>8970.528365577095</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>-725.3604518450787</v>
+        <v>1596.800161650068</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>927.9855812677567</v>
+        <v>934.7766562463829</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>-917.2745191355849</v>
+        <v>716.793361951531</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>-850.2559140190165</v>
+        <v>5733.0394785683</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>-890.9938311768146</v>
+        <v>5780.915977674372</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>960.0953680006805</v>
+        <v>8088.549484340197</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>-856.6663969669428</v>
+        <v>8021.545546994553</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>-596.6326433117308</v>
+        <v>1276.498104528309</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>-660.8803922254019</v>
+        <v>38015.2343002303</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>-508.6374193614971</v>
+        <v>35434.28733582167</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>-715.283963695004</v>
+        <v>-1315.007877001339</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>-720.7119261964391</v>
+        <v>-1614.95786469072</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>-675.1652178675436</v>
+        <v>-1234.170754465247</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>-750.6530796646622</v>
+        <v>-957.2404891514374</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>-769.5279003600174</v>
+        <v>-465.8827198745788</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>-774.4979162247422</v>
+        <v>85.12005285510644</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>-787.9135722820556</v>
+        <v>84.97015974740481</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>-800.0795467793823</v>
+        <v>823.7988996237196</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>-720.8832218627055</v>
+        <v>5538.679803073605</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>-513.918738817888</v>
+        <v>1380.373410662226</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>629.4353665266381</v>
+        <v>-20391.02203121444</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>657.5869253416731</v>
+        <v>-20597.02267784479</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>2985.771309305693</v>
+        <v>-21712.16745899266</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>869.5016670744404</v>
+        <v>24339.14253776952</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>832.6210689039126</v>
+        <v>22927.6257080986</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>1058.96127130484</v>
+        <v>-19753.5160021329</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>629.8417402796924</v>
+        <v>-40014.01657394855</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>1321.882883269801</v>
+        <v>-40430.42490606933</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>1477.732470224467</v>
+        <v>-39839.38365110885</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>-1465.9001855686</v>
+        <v>49430.72030045694</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>1414.00544915585</v>
+        <v>36376.44226353597</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>-112.6717770906024</v>
+        <v>1066.829625621831</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>-71.55825583713165</v>
+        <v>1025.188029088708</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>10.68959078805751</v>
+        <v>738.8160292213969</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>-31.77317216115578</v>
+        <v>721.3894352586591</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>-119.1612044354635</v>
+        <v>1310.869482710121</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>103.4042658425895</v>
+        <v>-1439.427183523484</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>-178.3376206050588</v>
+        <v>-1443.099145332495</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>-129.2488584270899</v>
+        <v>625.4125824192745</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>-130.2837896356792</v>
+        <v>672.7917277430015</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>-306.1244017695703</v>
+        <v>911.5301045064609</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>253.4918598595627</v>
+        <v>2932.483337659526</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>1400.420208021289</v>
+        <v>28333.7590756071</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>-82.53719324747709</v>
+        <v>585.3887383198427</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>314.06871194942</v>
+        <v>1691.082872380786</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>-1209.571306460585</v>
+        <v>8105.547277781034</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>-992.0353443789359</v>
+        <v>45938.25580670558</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>-1021.950264131576</v>
+        <v>45858.91571095857</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>-1078.829360169193</v>
+        <v>47725.55553928814</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>-849.0116688962146</v>
+        <v>48560.6214563996</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>-804.1327939126637</v>
+        <v>47632.59252823211</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>-1012.964221969216</v>
+        <v>46164.44691239361</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>-987.2118163858223</v>
+        <v>43151.62272038798</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>-970.6111186535453</v>
+        <v>39155.78791756483</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>-1358.595177483965</v>
+        <v>8174.434689868672</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>-396.5331446817699</v>
+        <v>-28442.32210144721</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>-419.5271298661309</v>
+        <v>-27029.33455349068</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>-368.4978830464226</v>
+        <v>-29397.696902704</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>1338.689984023381</v>
+        <v>50700.22009689706</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>-367.7362910851292</v>
+        <v>45667.27269344611</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>-623.8985068131972</v>
+        <v>45164.8127306032</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>-695.1673631453723</v>
+        <v>45555.9035937005</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>-928.1283190204372</v>
+        <v>46487.00918062218</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>-1063.217483388695</v>
+        <v>46375.24329013098</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>-978.9892061020832</v>
+        <v>48394.4838087673</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>-818.5008562851659</v>
+        <v>48174.92739136702</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>-630.8905110375316</v>
+        <v>47114.9678445511</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>-773.4123306116076</v>
+        <v>47307.6586159041</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>-1171.010960405498</v>
+        <v>41651.02868320743</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>-1023.606262941356</v>
+        <v>38952.69913887401</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>-1299.584564345416</v>
+        <v>1239.23617933959</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>-257.6783552921285</v>
+        <v>-22157.78564341231</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>-182.8501526793461</v>
+        <v>-19728.9430742307</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>-299.1790478722351</v>
+        <v>-20075.18940976295</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>-200.550099422975</v>
+        <v>-21590.60405281601</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>-49.44381688811182</v>
+        <v>-21107.45695848034</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>-71.42471033255853</v>
+        <v>-20517.69503550652</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>-306.20924904524</v>
+        <v>-28032.6665244418</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>-255.5487820577893</v>
+        <v>-27889.88013287672</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>-281.1724396709038</v>
+        <v>-27353.01711081827</v>
       </c>
     </row>
   </sheetData>
@@ -2098,1152 +2098,1152 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>-164.638069560318</v>
+        <v>-369.9534833084126</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>320.2137238137296</v>
+        <v>584.7388594616729</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>56.93234465457042</v>
+        <v>3.683685623542885</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>15.758725120135</v>
+        <v>-62.75001988948502</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>-483.792986540386</v>
+        <v>-7242.384482033352</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>392.0190740866132</v>
+        <v>-5315.258743707422</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>2057.130023325635</v>
+        <v>-1838.233647126733</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>1579.906293265376</v>
+        <v>-2285.165831458355</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>2368.18569418065</v>
+        <v>-1202.48716416954</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>2475.243163289472</v>
+        <v>-878.9244373236794</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>1276.851247202811</v>
+        <v>750.1041202729286</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>943.0031113090345</v>
+        <v>10109.11419989469</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>953.3504956514291</v>
+        <v>9644.786171858175</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>992.831882994116</v>
+        <v>9847.183316642491</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>-622.0999512665138</v>
+        <v>-8571.261645266437</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>-715.0370892010897</v>
+        <v>-8583.739382956797</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>762.0351857433055</v>
+        <v>581.8400556227301</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1236.924461271814</v>
+        <v>1339.435226257086</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1606.551462375167</v>
+        <v>1257.351101884099</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>1397.017269811416</v>
+        <v>989.2106647699811</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>215.5122024487395</v>
+        <v>-34.3539064933235</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>110.5508720041676</v>
+        <v>-174.8617241926722</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>202.7061257542406</v>
+        <v>-185.1898661581229</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>74.44764870314788</v>
+        <v>-408.4606905394604</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>105.1020173827683</v>
+        <v>-2483.355212973075</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>727.0240637136749</v>
+        <v>-531.7975741561459</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>629.8804855726767</v>
+        <v>-649.7981190172886</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>813.9182057665666</v>
+        <v>-1693.048146881723</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>277.8487777267882</v>
+        <v>-2322.091783018814</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>105.516685676384</v>
+        <v>-2051.649184075804</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>549.9234807579021</v>
+        <v>-2720.408773562786</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>583.0796057214765</v>
+        <v>-2749.782861169972</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>711.5545536541736</v>
+        <v>-3415.547845211022</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>473.5172111332505</v>
+        <v>218.4084405364732</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>-106.1627773895125</v>
+        <v>149.2572978956146</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>-453.4413966120405</v>
+        <v>-364.8029911843319</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>773.7605306790555</v>
+        <v>684.0202462037779</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>706.5741947277641</v>
+        <v>-2899.957154520825</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>508.2893369766991</v>
+        <v>-2782.354165442619</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>367.8507960645227</v>
+        <v>1421.157865990764</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>281.7930697137235</v>
+        <v>-2898.51897748814</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>-45.45453513330339</v>
+        <v>-3781.808746463362</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>-183.0879976807541</v>
+        <v>-3616.600747615317</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>-285.6328118298629</v>
+        <v>777.1426394250684</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>242.9945086097568</v>
+        <v>-415.2442991024025</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>283.7535086999647</v>
+        <v>-414.3300007069891</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>235.6744166290738</v>
+        <v>-407.4096881941379</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>349.4090769537676</v>
+        <v>-592.918320646884</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>232.2685987602969</v>
+        <v>-782.7065444468286</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>271.9507133556901</v>
+        <v>-687.9925813217666</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>-172.648248397196</v>
+        <v>849.7084169544903</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>-50.08098822582283</v>
+        <v>803.6381025986234</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>-441.1866770379188</v>
+        <v>1130.401611319925</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>530.9305528411843</v>
+        <v>1145.861353021568</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>893.49771548484</v>
+        <v>1989.471375740533</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>732.7746481379698</v>
+        <v>1742.814031055057</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>469.2688178607392</v>
+        <v>-1544.466775029338</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>398.1822649479175</v>
+        <v>2790.484322893884</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>37.17825700110259</v>
+        <v>56.60744257641755</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>98.89794242170547</v>
+        <v>38.85809886608513</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>-167.3673444566257</v>
+        <v>148.2185580421404</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>-242.4530424173008</v>
+        <v>223.4464778671904</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>-54.91949848403192</v>
+        <v>842.7002544163811</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>-182.8668383594072</v>
+        <v>-4060.183410388127</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>748.1555010611246</v>
+        <v>-2294.22760847495</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>-481.570357959252</v>
+        <v>-2462.53005083312</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>707.8654269807976</v>
+        <v>-2298.370795304796</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>1197.161159069398</v>
+        <v>-2524.672154016225</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>101.3060076148082</v>
+        <v>-3259.844601976455</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>137.1446867909757</v>
+        <v>-4142.917564370841</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>77.65813588111573</v>
+        <v>1818.081373474626</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>202.750173459528</v>
+        <v>2097.342192117751</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>279.8802692189111</v>
+        <v>1483.375404995661</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>-374.5184451968444</v>
+        <v>1307.57592160957</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>-711.4726902215261</v>
+        <v>727.0887370887976</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>985.0843749603547</v>
+        <v>-680.7132193956627</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>-132.7003297057709</v>
+        <v>-278.2914054749654</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>889.6525026117293</v>
+        <v>-1251.972847954072</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>-37.29376391951064</v>
+        <v>-17.82868573296128</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>-222.0066323158262</v>
+        <v>3587.718537141762</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>-213.7886280994899</v>
+        <v>3595.441843094835</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>-300.7974192486636</v>
+        <v>657.5481029042567</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>-330.7553657918907</v>
+        <v>652.4737833888121</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>-448.6161877452469</v>
+        <v>1145.590220497375</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>-578.4225782196027</v>
+        <v>1024.707262506105</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>-638.8285708732737</v>
+        <v>96.56108719545955</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>-333.0998851310251</v>
+        <v>-45.70532473056119</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>-1040.5767676935</v>
+        <v>-756.6821323132499</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>486.8260612391967</v>
+        <v>-3830.61363074691</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>230.2206008790199</v>
+        <v>560.5622293068063</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>128.3961383452752</v>
+        <v>543.5054012981527</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>-76.63148121831182</v>
+        <v>-70.37675506100641</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>-17.24536554999976</v>
+        <v>-29.6801281684818</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>163.4506486367929</v>
+        <v>-203.545945203294</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>-19.68245219852539</v>
+        <v>-10.42027207030434</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>-56.09279499613251</v>
+        <v>419.6795194586452</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>-54.72734225592353</v>
+        <v>109.1859205584276</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>-9.478924989611983</v>
+        <v>26.26930663881377</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>150.3336820019416</v>
+        <v>219.9403820985191</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>207.3365340616949</v>
+        <v>2701.921566189525</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>-78.40336490121926</v>
+        <v>-2529.255533095807</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>53.99781409273146</v>
+        <v>-2331.351249649682</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>-119.1057185493914</v>
+        <v>-2268.552769908777</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>-118.3377736487059</v>
+        <v>252.4598666187515</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>-266.4582167728355</v>
+        <v>507.3742585903125</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>-254.2002413440116</v>
+        <v>628.2584411358519</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>163.1653219994571</v>
+        <v>260.6248254561311</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>147.6850384523289</v>
+        <v>16824.04727161328</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>-106.3850947269965</v>
+        <v>-16439.75981540662</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>-132.7518866124288</v>
+        <v>-15840.85916259661</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>187.8985079590991</v>
+        <v>-10569.71103561294</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>282.3399752780429</v>
+        <v>-11065.20322308226</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>-35.21315420944038</v>
+        <v>-82.07363436509623</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>85.58078389262027</v>
+        <v>85.51957058383309</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>116.154370239276</v>
+        <v>-60.58396952294986</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>-25.06494957036261</v>
+        <v>118.7383517083503</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>23.72048354488477</v>
+        <v>50.80496379605776</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>-13.91836045665937</v>
+        <v>-31.1806559686507</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>-24.55323675380263</v>
+        <v>-61.89531206838229</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>396.4457474854889</v>
+        <v>511.5654940042641</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>513.7444335962044</v>
+        <v>-444.360707344986</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>552.2581606451215</v>
+        <v>-533.8236048879357</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>648.939585918336</v>
+        <v>548.6220089121969</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>-773.1003244289848</v>
+        <v>17040.83562929957</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>214.6190421086727</v>
+        <v>14483.69492550269</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>194.3520272309187</v>
+        <v>14509.18748567113</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>-84.7707001984476</v>
+        <v>21420.15105451592</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>298.8167047324773</v>
+        <v>20974.8437779493</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>660.9395339905565</v>
+        <v>-20304.3070762539</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>-662.3560552812201</v>
+        <v>-20132.8373995547</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>272.1927440300638</v>
+        <v>344.3512532803501</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>290.1252333402819</v>
+        <v>272.3847876536536</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>178.0626202772242</v>
+        <v>237.1581084884443</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>87.37979701253167</v>
+        <v>781.198570842303</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>125.2595419050566</v>
+        <v>691.772960495937</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>111.2327605862165</v>
+        <v>666.6720025294741</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>33.12257965246772</v>
+        <v>581.6494363345206</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>1490.514840327304</v>
+        <v>23084.62812765241</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>1030.062434747103</v>
+        <v>22364.56435229673</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>515.1938674948331</v>
+        <v>271.2993471123353</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>620.7727830366277</v>
+        <v>-298.9078971302949</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>445.4670554952214</v>
+        <v>-153.4812878280438</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>403.2788662861845</v>
+        <v>-68.44286608089294</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>368.4653879128214</v>
+        <v>-150.2589340798357</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>308.4440288486418</v>
+        <v>-111.9023668725104</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>284.5199574067142</v>
+        <v>546.6048429343699</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>401.571915917352</v>
+        <v>398.6210548886869</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>371.1033872260499</v>
+        <v>416.4059555050232</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>341.9404116747021</v>
+        <v>281.6554407111516</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>366.5948072227633</v>
+        <v>203.0379126915727</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>393.7664422008046</v>
+        <v>151.4634822103593</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>263.3583163796787</v>
+        <v>-129.8703289181027</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>140.8281031115314</v>
+        <v>-112.2324869966601</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>80.49771878613751</v>
+        <v>-64.36088249635964</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>29.65067309399285</v>
+        <v>614.5273589156935</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>267.3154313489148</v>
+        <v>284.1034056453959</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>294.5528844792418</v>
+        <v>91.70581570304776</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>363.8296465137453</v>
+        <v>38.64029075304571</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>-1179.59558808859</v>
+        <v>24359.61301223642</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>-838.776549345549</v>
+        <v>-21983.23661009519</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>400.5183819325209</v>
+        <v>-23224.77087631785</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>330.2459042004907</v>
+        <v>-22974.319714704</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>394.2571377831121</v>
+        <v>-438.4743687620628</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>193.7468412181972</v>
+        <v>-230.651641383134</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>76.46146989567706</v>
+        <v>428.9754283095298</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>201.057746361859</v>
+        <v>115.5223677078448</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>361.8654921214256</v>
+        <v>916.6983713608524</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>294.7161383677985</v>
+        <v>6910.127502697967</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>263.4925740081919</v>
+        <v>6883.397189680294</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>142.6622973119374</v>
+        <v>7041.144530670526</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>350.3762852763938</v>
+        <v>5605.038822029854</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>307.3189935971706</v>
+        <v>5681.725104509764</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>262.4494683377087</v>
+        <v>5729.648968753554</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>584.0425134690013</v>
+        <v>-5211.561120637391</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>140.8476477783826</v>
+        <v>4692.728921023961</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>95.85480795770718</v>
+        <v>4740.402938435301</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>57.13545262009393</v>
+        <v>4688.471596100992</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>-504.1027603798195</v>
+        <v>9919.495043851923</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>-570.0712389741263</v>
+        <v>9235.93233621927</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>-687.2034703734666</v>
+        <v>-430.4094601983556</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>-716.6032441899617</v>
+        <v>521.4502575966927</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>268.3529714405746</v>
+        <v>11366.58771412132</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>267.985716079506</v>
+        <v>11400.31553693721</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>-64.05811039990991</v>
+        <v>11739.38808638052</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>-214.8224894801088</v>
+        <v>11252.67376221844</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>324.7220863644006</v>
+        <v>10506.39984776214</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>-327.9248480129579</v>
+        <v>10280.65269958992</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>394.6118468270372</v>
+        <v>10359.99463841371</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>1002.095041408454</v>
+        <v>9008.932207195105</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>532.2494001415583</v>
+        <v>16550.28187638886</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>-498.9451230016784</v>
+        <v>15879.80369094233</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>-307.5029069977645</v>
+        <v>-14382.77082554993</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>-779.5103011925466</v>
+        <v>-13607.57667484444</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>-715.1821821253407</v>
+        <v>-13492.95690898396</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>-460.7764943049942</v>
+        <v>12133.8496194198</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>-848.4936782499071</v>
+        <v>11374.07984345851</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>-605.0630657298043</v>
+        <v>11420.71513564426</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>667.3747867999087</v>
+        <v>762.8473479030863</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>1183.159231494547</v>
+        <v>10822.47036755577</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>65.4489246348616</v>
+        <v>127.9098654830452</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>67.94949191752859</v>
+        <v>25.41010218492539</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>30.40199338049351</v>
+        <v>-22.12130993076258</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>36.0102237771494</v>
+        <v>3.744811625233692</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>162.400041031321</v>
+        <v>738.0150005742482</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>-86.82320805879043</v>
+        <v>-24.23325118840483</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>-12.9140480119841</v>
+        <v>60.95410627266003</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>222.9510570824617</v>
+        <v>164.8615348514744</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>-81.42025220943593</v>
+        <v>37.40550408146375</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>257.1992613376685</v>
+        <v>-282.8906867630351</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>-297.3614034268219</v>
+        <v>255.6668981975116</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>-538.2684405693728</v>
+        <v>862.2741604226262</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>399.3827405662492</v>
+        <v>1330.616894664933</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>-1156.398544121967</v>
+        <v>2593.549221109828</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>-1122.494199245973</v>
+        <v>2561.193448280457</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>-1172.525225435468</v>
+        <v>3276.956140472953</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>-958.6365825834687</v>
+        <v>13284.7271177357</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>-981.0865404074848</v>
+        <v>13109.60313288686</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>-1054.558826630849</v>
+        <v>12075.33558619163</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>-1148.386735875223</v>
+        <v>1167.088490021555</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>-1134.536304196798</v>
+        <v>1096.165362613573</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>179.8247183110127</v>
+        <v>291.205488382663</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>-450.7332018012426</v>
+        <v>-11461.92881246946</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>-517.3389644511071</v>
+        <v>-10860.43938679004</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>-193.8272465621651</v>
+        <v>5726.238322235621</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>-188.8650565481113</v>
+        <v>5814.469806144576</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>-180.8798832621029</v>
+        <v>5844.503348492211</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>-248.9505671319404</v>
+        <v>-5074.025142483743</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>-326.3521532505474</v>
+        <v>-3826.746114263598</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>-640.0322924138843</v>
+        <v>-839.5674345142469</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>-669.7692712207612</v>
+        <v>-864.6972258282533</v>
       </c>
     </row>
   </sheetData>

--- a/new_data/BS_continuous_hedge.xlsx
+++ b/new_data/BS_continuous_hedge.xlsx
@@ -380,1702 +380,1702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>175.6958241033383</v>
+        <v>238.5664741858832</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1636.684608212535</v>
+        <v>1627.729348936661</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>-61.91638362889943</v>
+        <v>-265.7958683557765</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>679.8782031403857</v>
+        <v>870.0160221095448</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>1526.803823276525</v>
+        <v>1305.097601678909</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>64.92711783427106</v>
+        <v>-24.39310016959078</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>-180.4989270165152</v>
+        <v>-269.4511643302478</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>803.35749344267</v>
+        <v>-471.6799615104763</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>681.3166234128041</v>
+        <v>354.4649730622725</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>-380.2981628540737</v>
+        <v>-358.6402869790882</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>719.2605052585922</v>
+        <v>699.5799166197627</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>21425.49840901336</v>
+        <v>29852.53329493853</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>21127.37479481972</v>
+        <v>-27093.24812244381</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>20197.07199967741</v>
+        <v>25893.87620025688</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>-16769.72424906855</v>
+        <v>-22021.6280346466</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>18255.92272816678</v>
+        <v>21255.21782515307</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>-25354.72975312007</v>
+        <v>-39094.81891890193</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>25350.68479053215</v>
+        <v>38953.16027813561</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>-24449.21811668757</v>
+        <v>-38106.07081233102</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>23392.43354708282</v>
+        <v>35670.979102574</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>26764.70174612432</v>
+        <v>39084.58917690266</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>26780.42360538577</v>
+        <v>39016.45523440243</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>25196.32485405006</v>
+        <v>37207.88834804993</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>25204.14907362301</v>
+        <v>37168.88618473054</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>25409.62758542622</v>
+        <v>37398.61537202438</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>-24675.23699430662</v>
+        <v>-36569.13644502639</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>24741.08409133053</v>
+        <v>36507.23580719815</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>23031.28149044796</v>
+        <v>33777.39097027794</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>22657.34654141241</v>
+        <v>33090.13196665348</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>-19293.25495971829</v>
+        <v>-29264.58785565897</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>18065.7942343832</v>
+        <v>27303.62721105436</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>-128.3074567559929</v>
+        <v>-278.8803440332545</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>-8744.108793811616</v>
+        <v>-8512.77518587661</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>9433.030744450711</v>
+        <v>9232.269845835546</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>7745.157938317736</v>
+        <v>-7223.64011710282</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>8149.613147871403</v>
+        <v>7683.89736292225</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>7672.540278341673</v>
+        <v>7144.961672607647</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>7326.806201013845</v>
+        <v>4955.772215587478</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>447.1256736686883</v>
+        <v>452.5755324378873</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>-1282.915178386991</v>
+        <v>-1812.18005015063</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>-208.4550086342579</v>
+        <v>-401.3323373692647</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>1495.171746771757</v>
+        <v>1708.050287763163</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>12214.06967721284</v>
+        <v>14316.14672761048</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>10568.1364834255</v>
+        <v>11366.84656240569</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>-10452.82896183153</v>
+        <v>-11368.49908516977</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>-12068.1453649286</v>
+        <v>-13514.40644607774</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>-12513.35787189697</v>
+        <v>-14063.89684420499</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>-12758.0963823265</v>
+        <v>-14345.27626802368</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>-14142.92883029818</v>
+        <v>16049.93249918833</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>-13935.55529884798</v>
+        <v>15798.88137922807</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>4142.100138158436</v>
+        <v>-3653.470692095279</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>2250.141430382528</v>
+        <v>-1756.786922699587</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>-12110.7707270639</v>
+        <v>-12205.75674634243</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>-10107.11372866834</v>
+        <v>-9803.34861343075</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>-10882.42531189658</v>
+        <v>-10757.38561998739</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>-10288.35803749774</v>
+        <v>-10124.83533122805</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>-12502.97023990158</v>
+        <v>-12658.768803447</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>-12249.43423891311</v>
+        <v>12328.52691658416</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>-11777.65803174385</v>
+        <v>-11777.01040018464</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>2137.691765305894</v>
+        <v>8231.060556066244</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>2119.448764869785</v>
+        <v>8249.213106046704</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>995.5582188244011</v>
+        <v>7071.314700793159</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>-5159.009102950304</v>
+        <v>-5794.223053342033</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>-2954.796301092816</v>
+        <v>-3282.25756867604</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>3634.065559391003</v>
+        <v>4006.192239462546</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>18433.31787962574</v>
+        <v>22288.5616249028</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>-366.3387358638303</v>
+        <v>794.898630246988</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>-16678.61752990134</v>
+        <v>-18489.05976357055</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>-16745.21112194228</v>
+        <v>-18539.33920268315</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>-16774.43804280492</v>
+        <v>-18626.06223961968</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>-17528.51604586546</v>
+        <v>19513.54747615303</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>-18664.82212610011</v>
+        <v>-21139.09734095437</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>-4209.286025869027</v>
+        <v>-4576.38771485196</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>-4736.069987804226</v>
+        <v>5114.470607920515</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>-5347.357001159749</v>
+        <v>5818.511346788434</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>4105.202063818945</v>
+        <v>4502.448483593668</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>732.6697548514544</v>
+        <v>749.1353663998642</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>959.6414485650665</v>
+        <v>993.1289580974048</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>1248.614934223114</v>
+        <v>1290.026692330376</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>-5488.108994359799</v>
+        <v>-3610.1473055158</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>-5112.117565104663</v>
+        <v>-3168.506484203871</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>-4798.854004825444</v>
+        <v>-2802.670374819496</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>-5119.458767489281</v>
+        <v>-3195.448406328458</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>-4521.920076826138</v>
+        <v>-2502.128118498642</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>4708.511053835109</v>
+        <v>-2695.689711364094</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>-10153.19447944163</v>
+        <v>-7924.983367958198</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>-10302.15527657032</v>
+        <v>-8070.918888867212</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>-2318.257824277188</v>
+        <v>-747.7629736889213</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>-7141.681976655547</v>
+        <v>-6986.792281141757</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>6275.379653389157</v>
+        <v>-4996.852405168597</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>5321.815707360173</v>
+        <v>-3872.533469828045</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>-11599.71722489313</v>
+        <v>-10357.3497274555</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>-5930.88852982884</v>
+        <v>-10858.70839422906</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>10468.20131175363</v>
+        <v>12839.11640496995</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>8335.361830303558</v>
+        <v>9764.15814224295</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>-9348.306404167779</v>
+        <v>-11257.87030580099</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>-8422.30177679953</v>
+        <v>-9981.901096765399</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>-2461.201182333861</v>
+        <v>-2886.089586063826</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>-47.24614325447424</v>
+        <v>-56.19678056454593</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>-466.0488718728102</v>
+        <v>-459.7967046479192</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>-64.76700330201363</v>
+        <v>-16.01823241344731</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>-368.4524049953787</v>
+        <v>-362.9457599839261</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>-232.4301625806842</v>
+        <v>-189.8496384476831</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>1397.170019902094</v>
+        <v>1487.73022045693</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>1424.945974600671</v>
+        <v>1515.411250531347</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>2587.302935422475</v>
+        <v>2675.476180804135</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>-97.72399283781408</v>
+        <v>30.07439313198255</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>6195.880403155104</v>
+        <v>6762.460368447419</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>3361.581245774542</v>
+        <v>-4113.663317807451</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>3697.276399546931</v>
+        <v>-4537.456129570376</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>3304.873679178008</v>
+        <v>4008.181287249956</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>1024.552877474892</v>
+        <v>1261.846864735452</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>1346.490548614898</v>
+        <v>1648.372451376546</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>1758.938795533668</v>
+        <v>2073.208584352389</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>-460.6980963436084</v>
+        <v>-440.7480103440263</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>80.79251223302218</v>
+        <v>139.623468742995</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>1436.007868451568</v>
+        <v>1469.224737257179</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>1451.381357840475</v>
+        <v>1486.309011332202</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>46.10920884112026</v>
+        <v>91.33623855421021</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>1514.972104952227</v>
+        <v>1747.17707352704</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>1434.75138116486</v>
+        <v>1414.934226436784</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>1659.212559613159</v>
+        <v>1842.694994399165</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>1685.409483047895</v>
+        <v>1855.072849827987</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>1605.132092673946</v>
+        <v>1764.525085052413</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>-69653.15620725995</v>
+        <v>-81440.61927774751</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>-71036.49008082684</v>
+        <v>-83166.12476605758</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>-69899.9265612957</v>
+        <v>-81742.98649362862</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>-69255.6037380459</v>
+        <v>-81055.98888870551</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>-72420.97970189755</v>
+        <v>-84629.33919558673</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>72866.35123082799</v>
+        <v>85271.91084909833</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>-62973.74615482707</v>
+        <v>-64148.61564079329</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>64853.95392817874</v>
+        <v>-66402.91045456957</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>-64404.5917791266</v>
+        <v>-65956.26140046248</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>-61961.19696993348</v>
+        <v>-63143.67642548525</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>-61752.70787354576</v>
+        <v>-62910.9719061902</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>-61817.03236408668</v>
+        <v>-62990.60561083674</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>-62956.1913799937</v>
+        <v>-64269.78916919239</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>-65529.81441120365</v>
+        <v>-67107.80399656334</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>-65011.42331081985</v>
+        <v>-66562.98184014409</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>-66739.39818774394</v>
+        <v>-68153.08822095739</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>-67040.44159621948</v>
+        <v>-68448.62567969892</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>-60600.13632679018</v>
+        <v>-57422.0815432508</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>-62044.09968617209</v>
+        <v>-59232.65210529722</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>-63066.51095976224</v>
+        <v>-60214.2140734358</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>-58598.12817767851</v>
+        <v>-51746.53128897457</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>-59586.62655836904</v>
+        <v>-52862.17066552482</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>-57384.51928153013</v>
+        <v>-50510.17420162359</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>-57231.88842087207</v>
+        <v>-50343.33015584934</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>-53308.79684321747</v>
+        <v>-40131.6088975121</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>56973.05293826568</v>
+        <v>43139.2704331941</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>443.3282216772228</v>
+        <v>515.7949916698944</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>-503.9853088580418</v>
+        <v>-547.401594072159</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>-65358.43293982363</v>
+        <v>-84048.83835975257</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>-65399.32336828789</v>
+        <v>-84073.05300188941</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>-69225.23410339891</v>
+        <v>-89153.63991718885</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>-69747.04631219861</v>
+        <v>-89708.52794994577</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>-70619.34980970008</v>
+        <v>-90632.78834849753</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>-71062.13981636174</v>
+        <v>-91059.9069628663</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>1067.411542824839</v>
+        <v>1363.31421494637</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>512.8738144851243</v>
+        <v>684.5004842027524</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>474.1101965700758</v>
+        <v>-424.0837870202065</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>-62.52804797386646</v>
+        <v>3.305397452940444</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>-515.0337169072299</v>
+        <v>-448.167746696278</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>-216.9897946651178</v>
+        <v>-143.5736737320896</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>-1033.176786979199</v>
+        <v>-985.6951043661477</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>-995.8167462313</v>
+        <v>-954.1338348774046</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>-595.8272090717743</v>
+        <v>-568.6068229579988</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>-719.427264343989</v>
+        <v>-676.381990589289</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>-66375.45507868864</v>
+        <v>-83067.73066562226</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>-63689.21639957195</v>
+        <v>-79559.77825590345</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>-63447.13608990042</v>
+        <v>-79240.08075362616</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>-69065.76411470772</v>
+        <v>-86120.05600283858</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>-69126.50694328558</v>
+        <v>-85982.37492059518</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>-69113.26276788687</v>
+        <v>-85948.17087775124</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>4060.964118868987</v>
+        <v>4855.538038079995</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>3671.8942398512</v>
+        <v>4383.040917516494</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>3718.973181380048</v>
+        <v>4424.462771253637</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>3617.514925544264</v>
+        <v>4315.264319692921</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>3857.203711940399</v>
+        <v>4573.898495400587</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>1454.805194294936</v>
+        <v>1676.609883093643</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>4066.033108808737</v>
+        <v>4600.753851335536</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>58137.15633474453</v>
+        <v>-77154.7902630812</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>74976.46269141141</v>
+        <v>-103457.494270539</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>72250.2505718313</v>
+        <v>99024.16470570071</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>-76109.97648213459</v>
+        <v>-106688.4089915982</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>-75594.68265538603</v>
+        <v>-105991.3625697435</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>-76112.22884646115</v>
+        <v>-106431.4870254485</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>-82628.91066655212</v>
+        <v>-116228.1135093116</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>-83108.63322990754</v>
+        <v>-116912.2986716141</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>-83042.2071126572</v>
+        <v>-116786.2567208248</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>6550.744324002428</v>
+        <v>5968.288076001034</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>6655.838244382527</v>
+        <v>6065.956786182924</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>6590.141185089575</v>
+        <v>5987.655503882902</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>53282.87635369063</v>
+        <v>-67698.77539857381</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>53661.27087628212</v>
+        <v>-68497.19794037707</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>67073.60848047893</v>
+        <v>80912.34560153939</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>4341.329580639098</v>
+        <v>4589.909611524432</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>-1886.972517793447</v>
+        <v>-1333.211276896866</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>4100.431386893717</v>
+        <v>3993.219032657467</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>4004.226925376871</v>
+        <v>3883.361447922061</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>3739.769750873415</v>
+        <v>3361.038719740031</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>2722.896701910222</v>
+        <v>2109.200785802732</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>2583.945318055446</v>
+        <v>1842.525895953952</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>3920.442467774585</v>
+        <v>3374.640154910973</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>4789.974057344942</v>
+        <v>4416.920057964825</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>3842.149249779965</v>
+        <v>3393.350369793437</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>4047.21412004988</v>
+        <v>3601.318125352111</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>4725.947041672586</v>
+        <v>4300.469355774328</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>3834.177244837204</v>
+        <v>3387.076112843646</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>3756.797104476536</v>
+        <v>3278.19773264686</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>-78588.44480212404</v>
+        <v>-112980.4327664858</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>-64411.8902506596</v>
+        <v>-90866.4979338352</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>-64497.32597069785</v>
+        <v>-90919.2929587657</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>-64163.52210973461</v>
+        <v>-90511.41879134295</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>-64371.54835056688</v>
+        <v>-90773.19585215335</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>-64608.72430326464</v>
+        <v>-91082.97661000327</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>6871.812824046794</v>
+        <v>7225.834675658508</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>4233.660040159478</v>
+        <v>3762.234361707915</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>2973.469550135002</v>
+        <v>2127.611317125611</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>1142.328670810355</v>
+        <v>-68.12460326424255</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>1860.255774589007</v>
+        <v>796.5581873869723</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>3122.955289080208</v>
+        <v>2215.749961164279</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>3011.725555305217</v>
+        <v>2069.632786106177</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>2954.889335555523</v>
+        <v>2018.434274631583</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>4782.251094320824</v>
+        <v>4103.506135993055</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>4683.052439124019</v>
+        <v>3990.863069937725</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>3849.588824270269</v>
+        <v>3111.610743911886</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>4367.52591877858</v>
+        <v>3670.049480687222</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>1115.527826603289</v>
+        <v>-263.1600209351395</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>3079.700650786086</v>
+        <v>1961.701136535585</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>2907.735647059994</v>
+        <v>1762.066800983492</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>3964.222771813203</v>
+        <v>2899.643946050613</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>4550.121127057706</v>
+        <v>3588.151288281793</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>36729.30258890843</v>
+        <v>39861.61304430814</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>36566.76664924301</v>
+        <v>39665.20932611668</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>33716.23328965434</v>
+        <v>36415.75366117118</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>35510.22628128005</v>
+        <v>36264.16180117225</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>35320.91689991107</v>
+        <v>36035.01952445432</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>35451.67561795622</v>
+        <v>36173.41115734293</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>32381.35432058492</v>
+        <v>32772.22896373134</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>21099.60607312936</v>
+        <v>21535.63354397476</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>-1273.826407047432</v>
+        <v>-1165.130366520125</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>37419.68629393784</v>
+        <v>36590.92702785657</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>34140.92573318586</v>
+        <v>32714.03116263123</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>34629.50137458106</v>
+        <v>33233.79679171678</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>31458.11812163347</v>
+        <v>29829.48266686502</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>31842.53865965343</v>
+        <v>28483.31992696736</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>-1304.428792343776</v>
+        <v>-957.2639562143077</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>35641.6889703314</v>
+        <v>31949.55806685615</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>36433.9230253335</v>
+        <v>32942.30528281828</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>35560.18800858265</v>
+        <v>29206.03571024624</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>3607.748282941442</v>
+        <v>3035.688403605768</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>-3298.328610564371</v>
+        <v>2485.568926969619</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>36256.57336197867</v>
+        <v>44117.23322073012</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>23481.9977868329</v>
+        <v>27830.62647571019</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>-1290.965912652507</v>
+        <v>-3559.135019258339</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>-573.2096826619248</v>
+        <v>-2677.016816471378</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>-7.049020617585576</v>
+        <v>-1987.554147829262</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>774.453110485788</v>
+        <v>-1045.161408945994</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>8970.528365577095</v>
+        <v>8746.981445119136</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>1596.800161650068</v>
+        <v>620.9940825930496</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>934.7766562463829</v>
+        <v>-1011.817259004515</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>716.793361951531</v>
+        <v>-1266.80088100106</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>5733.0394785683</v>
+        <v>4619.13117540162</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>5780.915977674372</v>
+        <v>4667.964121352267</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>8088.549484340197</v>
+        <v>7297.55532631787</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>8021.545546994553</v>
+        <v>7229.273202302438</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>1276.498104528309</v>
+        <v>257.8513877162057</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>38015.2343002303</v>
+        <v>44217.96728644021</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>35434.28733582167</v>
+        <v>41064.38952170208</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>-1315.007877001339</v>
+        <v>-3681.550469074898</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>-1614.95786469072</v>
+        <v>-4042.674610934762</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>-1234.170754465247</v>
+        <v>-3580.902661168252</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>-957.2404891514374</v>
+        <v>-3267.581842669267</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>-465.8827198745788</v>
+        <v>-2693.147768023405</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>85.12005285510644</v>
+        <v>-2052.930284108824</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>84.97015974740481</v>
+        <v>-2055.603307199862</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>823.7988996237196</v>
+        <v>-1208.371045818749</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>5538.679803073605</v>
+        <v>4163.680333054833</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>1380.373410662226</v>
+        <v>354.6601351718709</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>-20391.02203121444</v>
+        <v>-40461.20657219292</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>-20597.02267784479</v>
+        <v>-40814.54946084956</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>-21712.16745899266</v>
+        <v>-44081.14310103436</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>24339.14253776952</v>
+        <v>47199.61185377005</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>22927.6257080986</v>
+        <v>44293.22560649741</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>-19753.5160021329</v>
+        <v>-40240.97222861207</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>-40014.01657394855</v>
+        <v>-72276.52462454373</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>-40430.42490606933</v>
+        <v>-73336.59739202019</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>-39839.38365110885</v>
+        <v>-72488.78177733938</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>49430.72030045694</v>
+        <v>62672.44787972138</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>36376.44226353597</v>
+        <v>67698.68573121536</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>1066.829625621831</v>
+        <v>771.686651139229</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>1025.188029088708</v>
+        <v>673.7956958128466</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>738.8160292213969</v>
+        <v>352.4279357297233</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>721.3894352586591</v>
+        <v>334.2783755727295</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>1310.869482710121</v>
+        <v>-945.7247646053942</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>-1439.427183523484</v>
+        <v>-1624.390982354828</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>-1443.099145332495</v>
+        <v>-2072.818618960513</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>625.4125824192745</v>
+        <v>380.1416225245727</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>672.7917277430015</v>
+        <v>432.7742784775068</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>911.5301045064609</v>
+        <v>702.7586901286436</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>2932.483337659526</v>
+        <v>2570.573607421639</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>28333.7590756071</v>
+        <v>49336.58693333061</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>585.3887383198427</v>
+        <v>268.1062653961971</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>1691.082872380786</v>
+        <v>1517.74047697237</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>8105.547277781034</v>
+        <v>8364.885750734076</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>45938.25580670558</v>
+        <v>60303.58328782367</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>45858.91571095857</v>
+        <v>60105.93528488791</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>47725.55553928814</v>
+        <v>62718.67008082643</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>48560.6214563996</v>
+        <v>64145.77090251764</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>47632.59252823211</v>
+        <v>62733.01168272117</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>46164.44691239361</v>
+        <v>59293.82908610072</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>43151.62272038798</v>
+        <v>54950.32728268107</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>39155.78791756483</v>
+        <v>49443.30465495526</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>8174.434689868672</v>
+        <v>7919.820910358592</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>-28442.32210144721</v>
+        <v>-52810.19549894096</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>-27029.33455349068</v>
+        <v>-50625.08083479863</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>-29397.696902704</v>
+        <v>-54251.22235428963</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>50700.22009689706</v>
+        <v>67186.32527046587</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>45667.27269344611</v>
+        <v>59667.67864184714</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>45164.8127306032</v>
+        <v>58764.36497441094</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>45555.9035937005</v>
+        <v>59309.24658228715</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>46487.00918062218</v>
+        <v>60550.40581875748</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>46375.24329013098</v>
+        <v>60332.06859755385</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>48394.4838087673</v>
+        <v>63185.01352179415</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>48174.92739136702</v>
+        <v>62942.5206272525</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>47114.9678445511</v>
+        <v>61413.66799521467</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>47307.6586159041</v>
+        <v>61615.81166541957</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>41651.02868320743</v>
+        <v>51950.11535078712</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>38952.69913887401</v>
+        <v>48472.76309266191</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>1239.23617933959</v>
+        <v>-959.385610982722</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>-22157.78564341231</v>
+        <v>24890.12026055195</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>-19728.9430742307</v>
+        <v>-20634.43963379966</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>-20075.18940976295</v>
+        <v>-20920.61234843362</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>-21590.60405281601</v>
+        <v>22041.60673497182</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>-21107.45695848034</v>
+        <v>-21538.36825329987</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>-20517.69503550652</v>
+        <v>-20798.78720002675</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>-28032.6665244418</v>
+        <v>-32842.58832467924</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>-27889.88013287672</v>
+        <v>-32546.04463366679</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>-27353.01711081827</v>
+        <v>-31806.1430903503</v>
       </c>
     </row>
   </sheetData>
@@ -2098,1152 +2098,1152 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>-369.9534833084126</v>
+        <v>-154.4617038143625</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>584.7388594616729</v>
+        <v>322.7934596988704</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>3.683685623542885</v>
+        <v>73.34926413072914</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>-62.75001988948502</v>
+        <v>-27.10871315848328</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>-7242.384482033352</v>
+        <v>-355.7035145651812</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>-5315.258743707422</v>
+        <v>476.194113239964</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>-1838.233647126733</v>
+        <v>1976.467710864709</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>-2285.165831458355</v>
+        <v>1513.25313615296</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>-1202.48716416954</v>
+        <v>2067.685651379128</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>-878.9244373236794</v>
+        <v>2169.685909034617</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>750.1041202729286</v>
+        <v>834.8892524633522</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>10109.11419989469</v>
+        <v>1039.064388151683</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>9644.786171858175</v>
+        <v>1085.43414935794</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>9847.183316642491</v>
+        <v>1043.892346919776</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>-8571.261645266437</v>
+        <v>-610.1091967017869</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>-8583.739382956797</v>
+        <v>-699.8473985607984</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>581.8400556227301</v>
+        <v>748.5974151523823</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1339.435226257086</v>
+        <v>1071.942042309164</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1257.351101884099</v>
+        <v>1395.002856402717</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>989.2106647699811</v>
+        <v>996.3581646003204</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>-34.3539064933235</v>
+        <v>132.4040986996074</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>-174.8617241926722</v>
+        <v>41.31911049704566</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>-185.1898661581229</v>
+        <v>130.1971657959785</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>-408.4606905394604</v>
+        <v>-128.885093334979</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>-2483.355212973075</v>
+        <v>138.2186956278911</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>-531.7975741561459</v>
+        <v>730.6768515616473</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>-649.7981190172886</v>
+        <v>580.1234086526811</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>-1693.048146881723</v>
+        <v>854.6553685264275</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>-2322.091783018814</v>
+        <v>-110.464342963116</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>-2051.649184075804</v>
+        <v>234.4456253733715</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>-2720.408773562786</v>
+        <v>-322.7806448824008</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>-2749.782861169972</v>
+        <v>-355.3984487386483</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>-3415.547845211022</v>
+        <v>463.8203942661154</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>218.4084405364732</v>
+        <v>118.1838984349502</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>149.2572978956146</v>
+        <v>249.0031568716577</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>-364.8029911843319</v>
+        <v>-164.7222870624687</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>684.0202462037779</v>
+        <v>483.2024353099771</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>-2899.957154520825</v>
+        <v>1042.504400395054</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>-2782.354165442619</v>
+        <v>817.1013159032595</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>1421.157865990764</v>
+        <v>342.9821294386381</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>-2898.51897748814</v>
+        <v>348.8915759816416</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>-3781.808746463362</v>
+        <v>136.8075278606495</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>-3616.600747615317</v>
+        <v>-238.0219778827215</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>777.1426394250684</v>
+        <v>-186.0811815744</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>-415.2442991024025</v>
+        <v>231.1541424791736</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>-414.3300007069891</v>
+        <v>272.6198856404554</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>-407.4096881941379</v>
+        <v>233.5975356921677</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>-592.918320646884</v>
+        <v>417.0663366792414</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>-782.7065444468286</v>
+        <v>-292.8919394976197</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>-687.9925813217666</v>
+        <v>315.8294431516104</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>849.7084169544903</v>
+        <v>-239.741132077813</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>803.6381025986234</v>
+        <v>17.20704688126584</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>1130.401611319925</v>
+        <v>-830.124614518052</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>1145.861353021568</v>
+        <v>-764.9771859593131</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>1989.471375740533</v>
+        <v>1051.207759741686</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>1742.814031055057</v>
+        <v>-902.2433722906517</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>-1544.466775029338</v>
+        <v>-638.0066100903417</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>2790.484322893884</v>
+        <v>-506.7578854882114</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>56.60744257641755</v>
+        <v>-722.3489524706835</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>38.85809886608513</v>
+        <v>-857.3823528079263</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>148.2185580421404</v>
+        <v>-622.0964984911766</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>223.4464778671904</v>
+        <v>-547.5079123814729</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>842.7002544163811</v>
+        <v>871.4893957775412</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>-4060.183410388127</v>
+        <v>318.9971548297972</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>-2294.22760847495</v>
+        <v>933.3574715518289</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>-2462.53005083312</v>
+        <v>647.247797249941</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>-2298.370795304796</v>
+        <v>812.4868511967288</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>-2524.672154016225</v>
+        <v>1256.0249812481</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>-3259.844601976455</v>
+        <v>-20.16723294764279</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>-4142.917564370841</v>
+        <v>-27.79821997327463</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>1818.081373474626</v>
+        <v>284.6837643634222</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>2097.342192117751</v>
+        <v>-4.072255484843481</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>1483.375404995661</v>
+        <v>120.7902919856201</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>1307.57592160957</v>
+        <v>-707.5107488048134</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>727.0887370887976</v>
+        <v>1020.278281350348</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>-680.7132193956627</v>
+        <v>1338.739220439821</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>-278.2914054749654</v>
+        <v>-210.6944787743391</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>-1251.972847954072</v>
+        <v>1237.433241413188</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>-17.82868573296128</v>
+        <v>-328.1739134290065</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>3587.718537141762</v>
+        <v>254.506816597288</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>3595.441843094835</v>
+        <v>265.2991804687208</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>657.5481029042567</v>
+        <v>177.7168898960535</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>652.4737833888121</v>
+        <v>158.742183575665</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>1145.590220497375</v>
+        <v>181.7270695096231</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>1024.707262506105</v>
+        <v>90.79063886718905</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>96.56108719545955</v>
+        <v>-14.32508877293731</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>-45.70532473056119</v>
+        <v>187.2696393369406</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>-756.6821323132499</v>
+        <v>-517.8298455794684</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>-3830.61363074691</v>
+        <v>-110.3895032306555</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>560.5622293068063</v>
+        <v>127.8040775241461</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>543.5054012981527</v>
+        <v>14.35524792725118</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>-70.37675506100641</v>
+        <v>-251.4452260413145</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>-29.6801281684818</v>
+        <v>29.19972929536846</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>-203.545945203294</v>
+        <v>-216.2866095091908</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>-10.42027207030434</v>
+        <v>-63.88060054887279</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>419.6795194586452</v>
+        <v>0.7891106161153036</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>109.1859205584276</v>
+        <v>-38.31022270714828</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>26.26930663881377</v>
+        <v>-104.9295589508954</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>219.9403820985191</v>
+        <v>8.63231653214612</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>2701.921566189525</v>
+        <v>76.18678098853</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>-2529.255533095807</v>
+        <v>197.5194718798693</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>-2331.351249649682</v>
+        <v>209.5736685356981</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>-2268.552769908777</v>
+        <v>374.9555322459265</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>252.4598666187515</v>
+        <v>16.0091262958723</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>507.3742585903125</v>
+        <v>227.7764493626409</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>628.2584411358519</v>
+        <v>277.6083433549234</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>260.6248254561311</v>
+        <v>-28.16668613755115</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>16824.04727161328</v>
+        <v>948.3489449091715</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>-16439.75981540662</v>
+        <v>1170.221727646748</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>-15840.85916259661</v>
+        <v>1165.155066394174</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>-10569.71103561294</v>
+        <v>-1349.581132739467</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>-11065.20322308226</v>
+        <v>-1512.910595862225</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>-82.07363436509623</v>
+        <v>-69.95903904550065</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>85.51957058383309</v>
+        <v>-88.99210667231279</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>-60.58396952294986</v>
+        <v>-127.14240285832</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>118.7383517083503</v>
+        <v>-44.87159369271777</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>50.80496379605776</v>
+        <v>-34.99423464975195</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>-31.1806559686507</v>
+        <v>20.26376887512783</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>-61.89531206838229</v>
+        <v>31.29839247915606</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>511.5654940042641</v>
+        <v>-438.534646327146</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>-444.360707344986</v>
+        <v>-544.0096706577846</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>-533.8236048879357</v>
+        <v>-629.4672617251168</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>548.6220089121969</v>
+        <v>-725.3682632746137</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>17040.83562929957</v>
+        <v>-2504.293112614338</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>14483.69492550269</v>
+        <v>-3411.822405019283</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>14509.18748567113</v>
+        <v>-3391.304923946067</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>21420.15105451592</v>
+        <v>3074.738724465802</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>20974.8437779493</v>
+        <v>-2893.785234784125</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>-20304.3070762539</v>
+        <v>3880.884181818162</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>-20132.8373995547</v>
+        <v>3862.300200174157</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>344.3512532803501</v>
+        <v>-221.870884675964</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>272.3847876536536</v>
+        <v>-225.2672533297454</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>237.1581084884443</v>
+        <v>-97.86172327400595</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>781.198570842303</v>
+        <v>-75.51842136614516</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>691.772960495937</v>
+        <v>-97.52988340842708</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>666.6720025294741</v>
+        <v>-86.15654122311427</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>581.6494363345206</v>
+        <v>-13.52915998069561</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>23084.62812765241</v>
+        <v>74.54127703885193</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>22364.56435229673</v>
+        <v>468.2752919538067</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>271.2993471123353</v>
+        <v>-344.2952150677914</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>-298.9078971302949</v>
+        <v>-501.2236786262933</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>-153.4812878280438</v>
+        <v>-259.2808103770076</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>-68.44286608089294</v>
+        <v>-216.6650965265068</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>-150.2589340798357</v>
+        <v>-164.0957600593592</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>-111.9023668725104</v>
+        <v>-98.1811146786437</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>546.6048429343699</v>
+        <v>-138.6651917474971</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>398.6210548886869</v>
+        <v>-268.7083179305267</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>416.4059555050232</v>
+        <v>-241.7802677664823</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>281.6554407111516</v>
+        <v>-224.6929873755344</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>203.0379126915727</v>
+        <v>-41.00960785321527</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>151.4634822103593</v>
+        <v>-70.35080154718173</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>-129.8703289181027</v>
+        <v>80.53596316451646</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>-112.2324869966601</v>
+        <v>222.0840468750304</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>-64.36088249635964</v>
+        <v>288.6671010658875</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>614.5273589156935</v>
+        <v>336.1180957890595</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>284.1034056453959</v>
+        <v>20.54964339959358</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>91.70581570304776</v>
+        <v>-35.73501069385424</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>38.64029075304571</v>
+        <v>-96.33713561455595</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>24359.61301223642</v>
+        <v>-823.7134758018432</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>-21983.23661009519</v>
+        <v>1172.55943700761</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>-23224.77087631785</v>
+        <v>1651.594266441686</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>-22974.319714704</v>
+        <v>1708.347584537966</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>-438.4743687620628</v>
+        <v>48.49400945476016</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>-230.651641383134</v>
+        <v>339.8716166326024</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>428.9754283095298</v>
+        <v>574.9991593604451</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>115.5223677078448</v>
+        <v>273.3086686344715</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>916.6983713608524</v>
+        <v>-7029.434019109547</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>6910.127502697967</v>
+        <v>-276.4841144860343</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>6883.397189680294</v>
+        <v>-244.5521194544831</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>7041.144530670526</v>
+        <v>-125.8339673378338</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>5605.038822029854</v>
+        <v>286.9400377425009</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>5681.725104509764</v>
+        <v>329.0994708638455</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>5729.648968753554</v>
+        <v>375.0550920728306</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>-5211.561120637391</v>
+        <v>-685.2723941188425</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>4692.728921023961</v>
+        <v>1244.909269787221</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>4740.402938435301</v>
+        <v>1290.982424171367</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>4688.471596100992</v>
+        <v>1335.863598647485</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>9919.495043851923</v>
+        <v>378.4229875322998</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>9235.93233621927</v>
+        <v>495.5441616043837</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>-430.4094601983556</v>
+        <v>1439.807410370775</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>521.4502575966927</v>
+        <v>1345.851926239723</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>11366.58771412132</v>
+        <v>-1673.179643798419</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>11400.31553693721</v>
+        <v>-1662.626343156657</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>11739.38808638052</v>
+        <v>-1330.855663091549</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>11252.67376221844</v>
+        <v>-1194.175258411271</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>10506.39984776214</v>
+        <v>-1020.907203871407</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>10280.65269958992</v>
+        <v>-992.7765971891513</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>10359.99463841371</v>
+        <v>-1410.021240871585</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>9008.932207195105</v>
+        <v>-1969.932366858221</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>16550.28187638886</v>
+        <v>1247.221821721027</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>15879.80369094233</v>
+        <v>-1304.19596248055</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>-14382.77082554993</v>
+        <v>1135.781363570703</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>-13607.57667484444</v>
+        <v>1458.736090879457</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>-13492.95690898396</v>
+        <v>1398.763654535807</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>12133.8496194198</v>
+        <v>1168.608031615672</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>11374.07984345851</v>
+        <v>1373.747008853369</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>11420.71513564426</v>
+        <v>1016.13966491755</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>762.8473479030863</v>
+        <v>1582.344691945822</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>10822.47036755577</v>
+        <v>-4035.641150029512</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>127.9098654830452</v>
+        <v>114.1398622972243</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>25.41010218492539</v>
+        <v>12.91735480298536</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>-22.12130993076258</v>
+        <v>-87.69238000227745</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>3.744811625233692</v>
+        <v>-96.75328502124214</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>738.0150005742482</v>
+        <v>2.09224666591152</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>-24.23325118840483</v>
+        <v>22.672497086725</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>60.95410627266003</v>
+        <v>108.721168186089</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>164.8615348514744</v>
+        <v>84.41516112941937</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>37.40550408146375</v>
+        <v>71.5296682381381</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>-282.8906867630351</v>
+        <v>-140.650448881099</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>255.6668981975116</v>
+        <v>166.3356096710134</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>862.2741604226262</v>
+        <v>633.0819680764998</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>1330.616894664933</v>
+        <v>373.8871149525349</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>2593.549221109828</v>
+        <v>1210.554571593185</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>2561.193448280457</v>
+        <v>1176.638395240679</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>3276.956140472953</v>
+        <v>1186.348762138404</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>13284.7271177357</v>
+        <v>449.679715345851</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>13109.60313288686</v>
+        <v>490.4458523217644</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>12075.33558619163</v>
+        <v>652.4312339008172</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>1167.088490021555</v>
+        <v>1602.346129633965</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>1096.165362613573</v>
+        <v>1594.034943241294</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>291.205488382663</v>
+        <v>90.5226207415827</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>-11461.92881246946</v>
+        <v>176.697829739613</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>-10860.43938679004</v>
+        <v>241.2546212632019</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>5726.238322235621</v>
+        <v>-247.3217084693018</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>5814.469806144576</v>
+        <v>-259.6983039833199</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>5844.503348492211</v>
+        <v>-273.4989727592977</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>-5074.025142483743</v>
+        <v>-86.21643500892661</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>-3826.746114263598</v>
+        <v>-630.6801904304032</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>-839.5674345142469</v>
+        <v>-917.491186067413</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>-864.6972258282533</v>
+        <v>-902.7753777983143</v>
       </c>
     </row>
   </sheetData>

--- a/new_data/BS_continuous_hedge.xlsx
+++ b/new_data/BS_continuous_hedge.xlsx
@@ -380,1702 +380,1702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>238.5664741858832</v>
+        <v>-91.16821566073217</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1627.729348936661</v>
+        <v>-87.35346209422079</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>-265.7958683557765</v>
+        <v>273.0040457132265</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>870.0160221095448</v>
+        <v>405.786971084272</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>1305.097601678909</v>
+        <v>66.69207041387241</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>-24.39310016959078</v>
+        <v>218.7993986964535</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>-269.4511643302478</v>
+        <v>66.19247727388235</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>-471.6799615104763</v>
+        <v>674.5833712898993</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>354.4649730622725</v>
+        <v>-693.8897294255598</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>-358.6402869790882</v>
+        <v>-117.1617919057198</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>699.5799166197627</v>
+        <v>507.5938526504582</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>29852.53329493853</v>
+        <v>1306.832307327348</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>-27093.24812244381</v>
+        <v>-217.5515516225209</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>25893.87620025688</v>
+        <v>1018.700764820699</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>-22021.6280346466</v>
+        <v>1322.066024288431</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>21255.21782515307</v>
+        <v>89.60332073361897</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>-39094.81891890193</v>
+        <v>-724.9995078248512</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>38953.16027813561</v>
+        <v>998.7983469478718</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>-38106.07081233102</v>
+        <v>55.29819663671879</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>35670.979102574</v>
+        <v>1991.154013478918</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>39084.58917690266</v>
+        <v>373.2664783476786</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>39016.45523440243</v>
+        <v>497.7412920205887</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>37207.88834804993</v>
+        <v>682.0034761809591</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>37168.88618473054</v>
+        <v>842.6744920986582</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>37398.61537202438</v>
+        <v>889.0510985489035</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>-36569.13644502639</v>
+        <v>-737.0235315822019</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>36507.23580719815</v>
+        <v>1049.550248749274</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>33777.39097027794</v>
+        <v>2144.529928183154</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>33090.13196665348</v>
+        <v>2101.028959686615</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>-29264.58785565897</v>
+        <v>382.9601032819955</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>27303.62721105436</v>
+        <v>-7.665729946763066</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>-278.8803440332545</v>
+        <v>276.1011288219963</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>-8512.77518587661</v>
+        <v>1224.551581189287</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>9232.269845835546</v>
+        <v>-923.1886243266292</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>-7223.64011710282</v>
+        <v>1365.364194156063</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>7683.89736292225</v>
+        <v>-1203.077514617241</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>7144.961672607647</v>
+        <v>-780.9145263567166</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>4955.772215587478</v>
+        <v>-2588.865176355377</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>452.5755324378873</v>
+        <v>897.176705038657</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>-1812.18005015063</v>
+        <v>371.6000474615932</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>-401.3323373692647</v>
+        <v>543.6174823463284</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>1708.050287763163</v>
+        <v>644.6558382718906</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>14316.14672761048</v>
+        <v>96.39545887199904</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>11366.84656240569</v>
+        <v>1860.613455057415</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>-11368.49908516977</v>
+        <v>486.9169262737444</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>-13514.40644607774</v>
+        <v>272.2328613183626</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>-14063.89684420499</v>
+        <v>-228.7671018806048</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>-14345.27626802368</v>
+        <v>-515.5638166575483</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>16049.93249918833</v>
+        <v>649.1338213044382</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>15798.88137922807</v>
+        <v>581.9889202706304</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>-3653.470692095279</v>
+        <v>294.803901698303</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>-1756.786922699587</v>
+        <v>677.8803750089585</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>-12205.75674634243</v>
+        <v>-647.1039511810515</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>-9803.34861343075</v>
+        <v>-949.9915651313044</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>-10757.38561998739</v>
+        <v>-915.5355020710402</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>-10124.83533122805</v>
+        <v>-489.1339463509228</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>-12658.768803447</v>
+        <v>-1109.81659529294</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>12328.52691658416</v>
+        <v>1488.48678287511</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>-11777.01040018464</v>
+        <v>-1537.491523227475</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>8231.060556066244</v>
+        <v>-1431.690149072248</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>8249.213106046704</v>
+        <v>-1541.411707226843</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>7071.314700793159</v>
+        <v>-2528.1959909392</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>-5794.223053342033</v>
+        <v>-71.69118126070423</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>-3282.25756867604</v>
+        <v>38.5930312973736</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>4006.192239462546</v>
+        <v>234.9319342523449</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>22288.5616249028</v>
+        <v>-231.8625891986976</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>794.898630246988</v>
+        <v>621.6513724450193</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>-18489.05976357055</v>
+        <v>-528.907974279826</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>-18539.33920268315</v>
+        <v>-711.7903291967335</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>-18626.06223961968</v>
+        <v>-543.0175978687486</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>19513.54747615303</v>
+        <v>972.2836573718412</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>-21139.09734095437</v>
+        <v>-642.3191850030745</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>-4576.38771485196</v>
+        <v>779.9062946366462</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>5114.470607920515</v>
+        <v>-309.4532120445137</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>5818.511346788434</v>
+        <v>-274.5494354421371</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>4502.448483593668</v>
+        <v>162.3870722406809</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>749.1353663998642</v>
+        <v>92.64048949435518</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>993.1289580974048</v>
+        <v>163.6074842640005</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>1290.026692330376</v>
+        <v>345.3129852213695</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>-3610.1473055158</v>
+        <v>370.9165147429072</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>-3168.506484203871</v>
+        <v>385.2674312979399</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>-2802.670374819496</v>
+        <v>374.7549321638443</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>-3195.448406328458</v>
+        <v>718.7576651852791</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>-2502.128118498642</v>
+        <v>614.4738782039836</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>-2695.689711364094</v>
+        <v>516.5243599348147</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>-7924.983367958198</v>
+        <v>373.6034225352265</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>-8070.918888867212</v>
+        <v>339.9051098651975</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>-747.7629736889213</v>
+        <v>-1033.612191297618</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>-6986.792281141757</v>
+        <v>-656.5243272564478</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>-4996.852405168597</v>
+        <v>-32.69486080900631</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>-3872.533469828045</v>
+        <v>88.01097983755976</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>-10357.3497274555</v>
+        <v>168.5507125119166</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>-10858.70839422906</v>
+        <v>-199.1320960580386</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>12839.11640496995</v>
+        <v>-72.79876565465598</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>9764.15814224295</v>
+        <v>-329.531110881746</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>-11257.87030580099</v>
+        <v>1207.617493606764</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>-9981.901096765399</v>
+        <v>1069.59609909002</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>-2886.089586063826</v>
+        <v>848.3629757749726</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>-56.19678056454593</v>
+        <v>-56.57144686961616</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>-459.7967046479192</v>
+        <v>-243.1796128478878</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>-16.01823241344731</v>
+        <v>-107.7216559477238</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>-362.9457599839261</v>
+        <v>200.2836708948369</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>-189.8496384476831</v>
+        <v>-55.43470247318428</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>1487.73022045693</v>
+        <v>182.6811849970582</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>1515.411250531347</v>
+        <v>235.478763115918</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>2675.476180804135</v>
+        <v>150.0018983565305</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>30.07439313198255</v>
+        <v>-84.65459623748681</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>6762.460368447419</v>
+        <v>975.5744355064141</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>-4113.663317807451</v>
+        <v>92.49016556836388</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>-4537.456129570376</v>
+        <v>4.850316319099801</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>4008.181287249956</v>
+        <v>122.3145820553346</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>1261.846864735452</v>
+        <v>168.6988774098444</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>1648.372451376546</v>
+        <v>188.5259842932484</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>2073.208584352389</v>
+        <v>474.0241230798239</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>-440.7480103440263</v>
+        <v>115.3246385588478</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>139.623468742995</v>
+        <v>120.6630192772909</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>1469.224737257179</v>
+        <v>248.1118422906653</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>1486.309011332202</v>
+        <v>318.3052757910221</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>91.33623855421021</v>
+        <v>-58.59690644341712</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>1747.17707352704</v>
+        <v>523.0012438827301</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>1414.934226436784</v>
+        <v>330.9977539097773</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>1842.694994399165</v>
+        <v>572.1773408911495</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>1855.072849827987</v>
+        <v>700.5744745706005</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>1764.525085052413</v>
+        <v>661.1209354430642</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>-81440.61927774751</v>
+        <v>76.10176589337345</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>-83166.12476605758</v>
+        <v>110.0740964383404</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>-81742.98649362862</v>
+        <v>-43.46195803835833</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>-81055.98888870551</v>
+        <v>488.7445506472644</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>-84629.33919558673</v>
+        <v>344.5717599131317</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>85271.91084909833</v>
+        <v>-117.1636295488436</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>-64148.61564079329</v>
+        <v>-113.0726895469792</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>-66402.91045456957</v>
+        <v>-612.4831212456547</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>-65956.26140046248</v>
+        <v>-257.0655932874671</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>-63143.67642548525</v>
+        <v>-177.8365246494876</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>-62910.9719061902</v>
+        <v>-119.5366480131302</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>-62990.60561083674</v>
+        <v>-64.34129900144909</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>-64269.78916919239</v>
+        <v>-31.72544417815319</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>-67107.80399656334</v>
+        <v>-196.9461136920934</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>-66562.98184014409</v>
+        <v>-178.5961607362714</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>-68153.08822095739</v>
+        <v>378.1663915040198</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>-68448.62567969892</v>
+        <v>106.1201142904728</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>-57422.0815432508</v>
+        <v>-418.0005815208447</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>-59232.65210529722</v>
+        <v>-623.4127584899388</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>-60214.2140734358</v>
+        <v>-518.0239044742491</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>-51746.53128897457</v>
+        <v>-716.1109941063531</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>-52862.17066552482</v>
+        <v>-846.714313047833</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>-50510.17420162359</v>
+        <v>-824.5111321409267</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>-50343.33015584934</v>
+        <v>-771.13724517557</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>-40131.6088975121</v>
+        <v>-301.0465764620334</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>43139.2704331941</v>
+        <v>468.846771181352</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>515.7949916698944</v>
+        <v>69.48138611361372</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>-547.401594072159</v>
+        <v>170.5378886486746</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>-84048.83835975257</v>
+        <v>-757.4518091563973</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>-84073.05300188941</v>
+        <v>-829.9612865186529</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>-89153.63991718885</v>
+        <v>-780.2064149875679</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>-89708.52794994577</v>
+        <v>-995.1671801309998</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>-90632.78834849753</v>
+        <v>-149.6802584778402</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>-91059.9069628663</v>
+        <v>-568.9665160942162</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>1363.31421494637</v>
+        <v>-358.1665095281391</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>684.5004842027524</v>
+        <v>-518.7522310487369</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>-424.0837870202065</v>
+        <v>-751.702040069458</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>3.305397452940444</v>
+        <v>-445.8438367757167</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>-448.167746696278</v>
+        <v>-646.2084019185061</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>-143.5736737320896</v>
+        <v>-549.3731121524198</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>-985.6951043661477</v>
+        <v>-419.5784350539609</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>-954.1338348774046</v>
+        <v>-494.529784128299</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>-568.6068229579988</v>
+        <v>-339.3443298973527</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>-676.381990589289</v>
+        <v>-254.7789038923873</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>-83067.73066562226</v>
+        <v>-601.3142031357993</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>-79559.77825590345</v>
+        <v>-479.2683072987292</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>-79240.08075362616</v>
+        <v>-472.2549634695877</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>-86120.05600283858</v>
+        <v>-497.8179893945792</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>-85982.37492059518</v>
+        <v>-233.6837690673404</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>-85948.17087775124</v>
+        <v>-197.1451115503566</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>4855.538038079995</v>
+        <v>60.43826643060896</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>4383.040917516494</v>
+        <v>100.6804504917654</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>4424.462771253637</v>
+        <v>151.7556221195771</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>4315.264319692921</v>
+        <v>75.77171169397526</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>4573.898495400587</v>
+        <v>220.6388013278092</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>1676.609883093643</v>
+        <v>58.08182637302828</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>4600.753851335536</v>
+        <v>581.5281282540867</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>-77154.7902630812</v>
+        <v>639.6659889662729</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>-103457.494270539</v>
+        <v>-91.07481961229109</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>99024.16470570071</v>
+        <v>254.5099800638703</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>-106688.4089915982</v>
+        <v>896.3584048285204</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>-105991.3625697435</v>
+        <v>989.19660834627</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>-106431.4870254485</v>
+        <v>520.2201527114578</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>-116228.1135093116</v>
+        <v>397.8895894449599</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>-116912.2986716141</v>
+        <v>367.0486190814532</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>-116786.2567208248</v>
+        <v>428.5230897468647</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>5968.288076001034</v>
+        <v>711.825924844066</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>6065.956786182924</v>
+        <v>820.9515961276214</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>5987.655503882902</v>
+        <v>781.5643665946634</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>-67698.77539857381</v>
+        <v>1357.040107415121</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>-68497.19794037707</v>
+        <v>1725.141314925012</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>80912.34560153939</v>
+        <v>-1951.79448092534</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>4589.909611524432</v>
+        <v>-67.04297713258234</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>-1333.211276896866</v>
+        <v>807.270846482221</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>3993.219032657467</v>
+        <v>-394.8614470227326</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>3883.361447922061</v>
+        <v>-199.8545711261784</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>3361.038719740031</v>
+        <v>-442.131243518556</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>2109.200785802732</v>
+        <v>-706.9077705204746</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>1842.525895953952</v>
+        <v>-328.2557013933277</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>3374.640154910973</v>
+        <v>-142.9777950001298</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>4416.920057964825</v>
+        <v>-294.2557949984668</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>3393.350369793437</v>
+        <v>-467.8115428519493</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>3601.318125352111</v>
+        <v>-295.6164261356607</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>4300.469355774328</v>
+        <v>-275.7766534647608</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>3387.076112843646</v>
+        <v>-172.8961703729555</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>3278.19773264686</v>
+        <v>-252.1720041476468</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>-112980.4327664858</v>
+        <v>81.74568147718665</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>-90866.4979338352</v>
+        <v>-467.6741560251085</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>-90919.2929587657</v>
+        <v>-632.8378093556809</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>-90511.41879134295</v>
+        <v>-466.0614566686327</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>-90773.19585215335</v>
+        <v>-540.3792845208465</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>-91082.97661000327</v>
+        <v>-598.4495240505493</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>7225.834675658508</v>
+        <v>250.4988471220598</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>3762.234361707915</v>
+        <v>-162.2693903830125</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>2127.611317125611</v>
+        <v>-336.9875848909543</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>-68.12460326424255</v>
+        <v>-428.6412416076184</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>796.5581873869723</v>
+        <v>-484.5706142844476</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>2215.749961164279</v>
+        <v>-78.07620789549213</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>2069.632786106177</v>
+        <v>48.5212071288552</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>2018.434274631583</v>
+        <v>-53.55438556174489</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>4103.506135993055</v>
+        <v>-173.8067370434722</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>3990.863069937725</v>
+        <v>-188.698535434674</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>3111.610743911886</v>
+        <v>-245.7006008778686</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>3670.049480687222</v>
+        <v>153.5271354450958</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>-263.1600209351395</v>
+        <v>-305.2740095401299</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>1961.701136535585</v>
+        <v>51.22855216872587</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>1762.066800983492</v>
+        <v>114.2456264729907</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>2899.643946050613</v>
+        <v>284.1094522179517</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>3588.151288281793</v>
+        <v>-121.3987913532311</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>39861.61304430814</v>
+        <v>-227.3175155646977</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>39665.20932611668</v>
+        <v>-197.7994016274283</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>36415.75366117118</v>
+        <v>-112.8512157043722</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>36264.16180117225</v>
+        <v>-317.2427941174733</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>36035.01952445432</v>
+        <v>-271.1910516416937</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>36173.41115734293</v>
+        <v>-214.0019706283401</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>32772.22896373134</v>
+        <v>-254.2577432281027</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>21535.63354397476</v>
+        <v>-47.23145061339491</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>-1165.130366520125</v>
+        <v>-107.4583336124402</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>36590.92702785657</v>
+        <v>-252.4206228623638</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>32714.03116263123</v>
+        <v>-199.5132739959399</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>33233.79679171678</v>
+        <v>-102.6407576895163</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>29829.48266686502</v>
+        <v>-158.4476256020587</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>28483.31992696736</v>
+        <v>22.72197719991837</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>-957.2639562143077</v>
+        <v>-12.28445328837198</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>31949.55806685615</v>
+        <v>-132.9047839125476</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>32942.30528281828</v>
+        <v>15.55497259985355</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>29206.03571024624</v>
+        <v>450.454049301511</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>3035.688403605768</v>
+        <v>299.2335163047049</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>2485.568926969619</v>
+        <v>213.5723495453878</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>44117.23322073012</v>
+        <v>682.8287944236922</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>27830.62647571019</v>
+        <v>895.2474139456798</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>-3559.135019258339</v>
+        <v>866.791243416873</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>-2677.016816471378</v>
+        <v>890.4259621953976</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>-1987.554147829262</v>
+        <v>907.0731723346942</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>-1045.161408945994</v>
+        <v>941.1396829037335</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>8746.981445119136</v>
+        <v>924.4200346453431</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>620.9940825930496</v>
+        <v>876.7540484325783</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>-1011.817259004515</v>
+        <v>1216.994143156704</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>-1266.80088100106</v>
+        <v>1206.769707132568</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>4619.13117540162</v>
+        <v>1124.992367466901</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>4667.964121352267</v>
+        <v>1165.85748835337</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>7297.55532631787</v>
+        <v>1249.12960255309</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>7229.273202302438</v>
+        <v>1133.567720716985</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>257.8513877162057</v>
+        <v>783.9508865653161</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>44217.96728644021</v>
+        <v>1109.621854707874</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>41064.38952170208</v>
+        <v>903.0175782435548</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>-3681.550469074898</v>
+        <v>1150.774295345694</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>-4042.674610934762</v>
+        <v>1145.471219050125</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>-3580.902661168252</v>
+        <v>1102.126409172454</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>-3267.581842669267</v>
+        <v>1177.217807094282</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>-2693.147768023405</v>
+        <v>1194.348553891006</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>-2052.930284108824</v>
+        <v>1196.756692160164</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>-2055.603307199862</v>
+        <v>1209.618765178132</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>-1208.371045818749</v>
+        <v>1222.353594355591</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>4163.680333054833</v>
+        <v>1119.818766623243</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>354.6601351718709</v>
+        <v>783.428813228212</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>-40461.20657219292</v>
+        <v>1287.558556329204</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>-40814.54946084956</v>
+        <v>1316.756310661816</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>-44081.14310103436</v>
+        <v>3677.72142378441</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>47199.61185377005</v>
+        <v>-1636.835893848684</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>44293.22560649741</v>
+        <v>-145.284936637339</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>-40240.97222861207</v>
+        <v>2097.870467267212</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>-72276.52462454373</v>
+        <v>1680.839443016031</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>-73336.59739202019</v>
+        <v>2417.474229851884</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>-72488.78177733938</v>
+        <v>2575.007140426181</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>62672.44787972138</v>
+        <v>2511.440885971757</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>67698.68573121536</v>
+        <v>-2488.378050969757</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>771.686651139229</v>
+        <v>-107.4639965564955</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>673.7956958128466</v>
+        <v>-61.67034331164405</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>352.4279357297233</v>
+        <v>16.8655372713868</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>334.2783755727295</v>
+        <v>-20.726294094736</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>-945.7247646053942</v>
+        <v>105.3086498606349</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>-1624.390982354828</v>
+        <v>108.8238310832087</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>-2072.818618960513</v>
+        <v>-177.2969717443899</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>380.1416225245727</v>
+        <v>-125.9737552158659</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>432.7742784775068</v>
+        <v>-127.7300307797959</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>702.7586901286436</v>
+        <v>-295.5072670506034</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>2570.573607421639</v>
+        <v>248.5428641532371</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>49336.58693333061</v>
+        <v>1388.295244682487</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>268.1062653961971</v>
+        <v>79.54429285466612</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>1517.74047697237</v>
+        <v>316.7594714554131</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>8364.885750734076</v>
+        <v>1394.311028608433</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>60303.58328782367</v>
+        <v>1469.464586372527</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>60105.93528488791</v>
+        <v>1504.609528260057</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>62718.67008082643</v>
+        <v>1567.302058902228</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>64145.77090251764</v>
+        <v>1262.183875247963</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>62733.01168272117</v>
+        <v>1194.225201288833</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>59293.82908610072</v>
+        <v>1396.165141432683</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>54950.32728268107</v>
+        <v>1363.935189072103</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>49443.30465495526</v>
+        <v>1307.938754299762</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>7919.820910358592</v>
+        <v>1698.911458635128</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>-52810.19549894096</v>
+        <v>913.8018386000359</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>-50625.08083479863</v>
+        <v>943.9615195707929</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>-54251.22235428963</v>
+        <v>850.2733834210532</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>67186.32527046587</v>
+        <v>1988.527055289473</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>59667.67864184714</v>
+        <v>844.5178435304272</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>58764.36497441094</v>
+        <v>1114.631669486861</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>59309.24658228715</v>
+        <v>1199.934604562402</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>60550.40581875748</v>
+        <v>1471.211067272756</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>60332.06859755385</v>
+        <v>1628.602057006965</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>63185.01352179415</v>
+        <v>1482.563984570705</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>62942.5206272525</v>
+        <v>1315.770911723579</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>61413.66799521467</v>
+        <v>1097.494236920406</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>61615.81166541957</v>
+        <v>1251.670885808771</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>51950.11535078712</v>
+        <v>1649.504299737039</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>48472.76309266191</v>
+        <v>1435.72293485102</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>-959.385610982722</v>
+        <v>1748.772454490861</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>24890.12026055195</v>
+        <v>257.5230180377651</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>-20634.43963379966</v>
+        <v>-170.8028365027877</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>-20920.61234843362</v>
+        <v>-281.9534096067132</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>22041.60673497182</v>
+        <v>191.9831563138227</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>-21538.36825329987</v>
+        <v>-45.50104826483612</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>-20798.78720002675</v>
+        <v>-67.36808991704908</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>-32842.58832467924</v>
+        <v>-357.93928945068</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>-32546.04463366679</v>
+        <v>-307.4994597240988</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>-31806.1430903503</v>
+        <v>-331.9588395292481</v>
       </c>
     </row>
   </sheetData>
@@ -2098,1152 +2098,1152 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>-154.4617038143625</v>
+        <v>-155.9716533801915</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>322.7934596988704</v>
+        <v>316.804155489149</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>73.34926413072914</v>
+        <v>59.36129116220692</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>-27.10871315848328</v>
+        <v>-15.98497120086364</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>-355.7035145651812</v>
+        <v>-684.9126760444069</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>476.194113239964</v>
+        <v>130.8206361122739</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>1976.467710864709</v>
+        <v>1930.608040618585</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>1513.25313615296</v>
+        <v>1468.43726039193</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>2067.685651379128</v>
+        <v>2280.367541560284</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>2169.685909034617</v>
+        <v>2377.635579446038</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>834.8892524633522</v>
+        <v>1223.534838161579</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>1039.064388151683</v>
+        <v>961.4328971849624</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>1085.43414935794</v>
+        <v>974.1550792058417</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1043.892346919776</v>
+        <v>1064.030943163198</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>-610.1091967017869</v>
+        <v>-736.7246841526306</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>-699.8473985607984</v>
+        <v>-822.8818121108519</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>748.5974151523823</v>
+        <v>717.7934199945995</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1071.942042309164</v>
+        <v>1060.965187826414</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1395.002856402717</v>
+        <v>1367.209431660888</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>996.3581646003204</v>
+        <v>1032.882565303911</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>132.4040986996074</v>
+        <v>98.15599068901058</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>41.31911049704566</v>
+        <v>3.543476513063692</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>130.1971657959785</v>
+        <v>89.36169673571959</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>-128.885093334979</v>
+        <v>-160.6952000343611</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>138.2186956278911</v>
+        <v>126.3770324183461</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>730.6768515616473</v>
+        <v>584.6076716092466</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>580.1234086526811</v>
+        <v>435.2774234491512</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>854.6553685264275</v>
+        <v>587.8699193968164</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>-110.464342963116</v>
+        <v>-362.3582318826452</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>234.4456253733715</v>
+        <v>-23.70326233199103</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>-322.7806448824008</v>
+        <v>-593.4246679124649</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>-355.3984487386483</v>
+        <v>-625.6799105979949</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>463.8203942661154</v>
+        <v>776.7587312315542</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>118.1838984349502</v>
+        <v>571.7563312326226</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>249.0031568716577</v>
+        <v>-204.315396090426</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>-164.7222870624687</v>
+        <v>-559.8766252767882</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>483.2024353099771</v>
+        <v>879.7353148719716</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>1042.504400395054</v>
+        <v>706.3569473351374</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>817.1013159032595</v>
+        <v>506.8687300070026</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>342.9821294386381</v>
+        <v>366.4927808326227</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>348.8915759816416</v>
+        <v>426.116707504332</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>136.8075278606495</v>
+        <v>164.3588221142213</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>-238.0219778827215</v>
+        <v>-270.9509160051385</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>-186.0811815744</v>
+        <v>-313.5268071488562</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>231.1541424791736</v>
+        <v>264.3059770772796</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>272.6198856404554</v>
+        <v>302.4044077407001</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>233.5975356921677</v>
+        <v>268.9064138433297</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>417.0663366792414</v>
+        <v>428.0542703365442</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>-292.8919394976197</v>
+        <v>-301.0900941941679</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>315.8294431516104</v>
+        <v>326.5839562830366</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>-239.741132077813</v>
+        <v>-245.7643727536564</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>17.20704688126584</v>
+        <v>27.11271967553812</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>-830.124614518052</v>
+        <v>614.8597987322244</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>-764.9771859593131</v>
+        <v>683.2396421265958</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>1051.207759741686</v>
+        <v>892.82194850453</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>-902.2433722906517</v>
+        <v>-736.3989524592533</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>-638.0066100903417</v>
+        <v>-472.1832674422969</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>-506.7578854882114</v>
+        <v>-405.7245511723614</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>-722.3489524706835</v>
+        <v>134.9594911752074</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>-857.3823528079263</v>
+        <v>2.682793440352079</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>-622.0964984911766</v>
+        <v>253.5340333558685</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>-547.5079123814729</v>
+        <v>328.2205731174886</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>871.4893957775412</v>
+        <v>-115.9736653699038</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>318.9971548297972</v>
+        <v>-266.7226623391598</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>933.3574715518289</v>
+        <v>427.62988517134</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>647.247797249941</v>
+        <v>157.7262574692386</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>812.4868511967288</v>
+        <v>334.6854208451796</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>1256.0249812481</v>
+        <v>773.8889909156014</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>-20.16723294764279</v>
+        <v>-432.6186118653186</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>-27.79821997327463</v>
+        <v>-449.8028396860273</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>284.6837643634222</v>
+        <v>426.64991520581</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>-4.072255484843481</v>
+        <v>-146.1423641061974</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>120.7902919856201</v>
+        <v>-64.18432648078442</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>-707.5107488048134</v>
+        <v>-809.383310909187</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>1020.278281350348</v>
+        <v>1142.240669529272</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>1338.739220439821</v>
+        <v>1440.135619386255</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>-210.6944787743391</v>
+        <v>-261.3278304291375</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>1237.433241413188</v>
+        <v>1387.382219174359</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>-328.1739134290065</v>
+        <v>-178.9295554450537</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>254.506816597288</v>
+        <v>-542.7104747094545</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>265.2991804687208</v>
+        <v>-532.0110179761577</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>177.7168898960535</v>
+        <v>-623.7330503556959</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>158.742183575665</v>
+        <v>-642.7088876881135</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>181.7270695096231</v>
+        <v>-630.08319991605</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>90.79063886718905</v>
+        <v>-735.3630382283663</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>-14.32508877293731</v>
+        <v>-842.8891075747952</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>187.2696393369406</v>
+        <v>-646.3449851343321</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>-517.8298455794684</v>
+        <v>-1351.558060047019</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>-110.3895032306555</v>
+        <v>-950.8344425187406</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>127.8040775241461</v>
+        <v>-279.5481169867544</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>14.35524792725118</v>
+        <v>-388.2949503734799</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>-251.4452260413145</v>
+        <v>-460.8028201478919</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>29.19972929536846</v>
+        <v>24.15786166210705</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>-216.2866095091908</v>
+        <v>-191.285518133947</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>-63.88060054887279</v>
+        <v>-31.3206509475222</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.7891106161153036</v>
+        <v>115.8946414287049</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>-38.31022270714828</v>
+        <v>55.27302713400498</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>-104.9295589508954</v>
+        <v>-10.65640983821207</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>8.63231653214612</v>
+        <v>126.7137950296369</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>76.18678098853</v>
+        <v>-26.52348426144751</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>197.5194718798693</v>
+        <v>97.28099095439165</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>209.5736685356981</v>
+        <v>120.7260880284895</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>374.9555322459265</v>
+        <v>276.5899505404508</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>16.0091262958723</v>
+        <v>132.2981625078806</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>227.7764493626409</v>
+        <v>308.3786616814328</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>277.6083433549234</v>
+        <v>292.0038133063976</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>-28.16668613755115</v>
+        <v>140.0871954401449</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>948.3489449091715</v>
+        <v>-95.5100618263581</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>1170.221727646748</v>
+        <v>134.7068573752684</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>1165.155066394174</v>
+        <v>172.4154172156686</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>-1349.581132739467</v>
+        <v>-172.2771783716254</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>-1512.910595862225</v>
+        <v>-361.1807509612462</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>-69.95903904550065</v>
+        <v>-71.35363281452159</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>-88.99210667231279</v>
+        <v>-74.71352164071978</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>-127.14240285832</v>
+        <v>-120.5345500411319</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>-44.87159369271777</v>
+        <v>-32.47221117859028</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>-34.99423464975195</v>
+        <v>-25.76004818917155</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>20.26376887512783</v>
+        <v>22.295733127213</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>31.29839247915606</v>
+        <v>34.30580212035841</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>-438.534646327146</v>
+        <v>-355.6676104471539</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>-544.0096706577846</v>
+        <v>-526.2278849854915</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>-629.4672617251168</v>
+        <v>-610.0333957041613</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>-725.3682632746137</v>
+        <v>-706.3190488132411</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>-2504.293112614338</v>
+        <v>665.8337651667821</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>-3411.822405019283</v>
+        <v>-304.2060011340186</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>-3391.304923946067</v>
+        <v>-283.4054807679713</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>3074.738724465802</v>
+        <v>35.48446845235266</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>-2893.785234784125</v>
+        <v>173.850885717482</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>3880.884181818162</v>
+        <v>838.9155999191732</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>3862.300200174157</v>
+        <v>822.4809934826685</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>-221.870884675964</v>
+        <v>-276.7247348688192</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>-225.2672533297454</v>
+        <v>-285.1131509852165</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>-97.86172327400595</v>
+        <v>-169.9522974498082</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>-75.51842136614516</v>
+        <v>-105.7005410711486</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>-97.52988340842708</v>
+        <v>-129.8354543928564</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>-86.15654122311427</v>
+        <v>-116.1188233098269</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>-13.52915998069561</v>
+        <v>-35.927885965842</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>74.54127703885193</v>
+        <v>-1488.648704805894</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>468.2752919538067</v>
+        <v>-1029.195212060178</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>-344.2952150677914</v>
+        <v>-491.6835374198574</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>-501.2236786262933</v>
+        <v>-682.0463535315753</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>-259.2808103770076</v>
+        <v>-447.4720428287321</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>-216.6650965265068</v>
+        <v>-401.8921973937979</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>-164.0957600593592</v>
+        <v>-358.6539737521297</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>-98.1811146786437</v>
+        <v>-295.0937707877927</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>-138.6651917474971</v>
+        <v>-287.9585085808971</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>-268.7083179305267</v>
+        <v>-419.179137248609</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>-241.7802677664823</v>
+        <v>-392.5712356602095</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>-224.6929873755344</v>
+        <v>-380.2131808954196</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>-41.00960785321527</v>
+        <v>-341.8863715867558</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>-70.35080154718173</v>
+        <v>-372.8772853939203</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>80.53596316451646</v>
+        <v>-261.0935892710616</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>222.0840468750304</v>
+        <v>-127.0022101486752</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>288.6671010658875</v>
+        <v>-62.44493879923333</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>336.1180957890595</v>
+        <v>20.62328022564123</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>20.54964339959358</v>
+        <v>-295.6125978644586</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>-35.73501069385424</v>
+        <v>-350.702983230292</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>-96.33713561455595</v>
+        <v>-411.91706344533</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>-823.7134758018432</v>
+        <v>1128.489641265836</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>1172.55943700761</v>
+        <v>-829.5891842241792</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>1651.594266441686</v>
+        <v>-304.1368756456202</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>1708.347584537966</v>
+        <v>-247.0407052941624</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>48.49400945476016</v>
+        <v>-466.4491096110773</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>339.8716166326024</v>
+        <v>-182.0426749773089</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>574.9991593604451</v>
+        <v>65.25689377159641</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>273.3086686344715</v>
+        <v>-236.5041199445015</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>-7029.434019109547</v>
+        <v>353.3553453425752</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>-276.4841144860343</v>
+        <v>-312.2632445991318</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>-244.5521194544831</v>
+        <v>-284.1165117622405</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>-125.8339673378338</v>
+        <v>-164.0913097759065</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>286.9400377425009</v>
+        <v>-359.5014763309329</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>329.0994708638455</v>
+        <v>-318.0914233708016</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>375.0550920728306</v>
+        <v>-272.4098299848122</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>-685.2723941188425</v>
+        <v>606.6767468964886</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>1244.909269787221</v>
+        <v>-137.9968817730007</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>1290.982424171367</v>
+        <v>-92.51128840018491</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>1335.863598647485</v>
+        <v>-47.17930827935882</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>378.4229875322998</v>
+        <v>647.7251085875758</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>495.5441616043837</v>
+        <v>704.2241348212215</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>1439.807410370775</v>
+        <v>836.4698697594041</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>1345.851926239723</v>
+        <v>867.9968407774611</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>-1673.179643798419</v>
+        <v>-1193.840918121556</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>-1662.626343156657</v>
+        <v>-1203.908257665335</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>-1330.855663091549</v>
+        <v>-872.5485524988217</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>-1194.175258411271</v>
+        <v>-716.3848615564584</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>-1020.907203871407</v>
+        <v>-650.2049288846802</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>-992.7765971891513</v>
+        <v>-664.2606972441999</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>-1410.021240871585</v>
+        <v>-1409.578606623631</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>-1969.932366858221</v>
+        <v>-2020.465622208352</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>1247.221821721027</v>
+        <v>1579.268467291663</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>-1304.19596248055</v>
+        <v>-1536.579933445604</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>1135.781363570703</v>
+        <v>1303.618099213312</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>1458.736090879457</v>
+        <v>1773.796276009549</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>1398.763654535807</v>
+        <v>1685.464589856051</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>1168.608031615672</v>
+        <v>1337.398432399597</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>1373.747008853369</v>
+        <v>1781.522683758111</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>1016.13966491755</v>
+        <v>1410.08357507517</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>1582.344691945822</v>
+        <v>766.5119560497506</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>-4035.641150029512</v>
+        <v>-2464.121598701417</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>114.1398622972243</v>
+        <v>65.23227551280428</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>12.91735480298536</v>
+        <v>66.2320148247757</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>-87.69238000227745</v>
+        <v>-31.09150000162277</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>-96.75328502124214</v>
+        <v>-37.83905631307456</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>2.09224666591152</v>
+        <v>163.6066620441055</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>22.672497086725</v>
+        <v>-87.60754064067009</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>108.721168186089</v>
+        <v>-7.706267477877158</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>84.41516112941937</v>
+        <v>213.0631445569742</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>71.5296682381381</v>
+        <v>-67.56769763460737</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>-140.650448881099</v>
+        <v>-263.6726943504501</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>166.3356096710134</v>
+        <v>284.6237542425838</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>633.0819680764998</v>
+        <v>614.4415022912683</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>373.8871149525349</v>
+        <v>419.435902613533</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>1210.554571593185</v>
+        <v>1341.036567902796</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>1176.638395240679</v>
+        <v>1307.233921393821</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>1186.348762138404</v>
+        <v>1357.472420867636</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>449.679715345851</v>
+        <v>1427.741269882967</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>490.4458523217644</v>
+        <v>1458.515782401076</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>652.4312339008172</v>
+        <v>1443.18982673391</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>1602.346129633965</v>
+        <v>1511.742633660552</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>1594.034943241294</v>
+        <v>1498.719854344495</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>90.5226207415827</v>
+        <v>189.5581471292882</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>176.697829739613</v>
+        <v>974.799087344236</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>241.2546212632019</v>
+        <v>1037.548028176686</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>-247.3217084693018</v>
+        <v>187.3011248792616</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>-259.6983039833199</v>
+        <v>182.477633612066</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>-273.4989727592977</v>
+        <v>172.1410323514065</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>-86.21643500892661</v>
+        <v>-248.5097877100411</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>-630.6801904304032</v>
+        <v>-297.0028979272719</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>-917.491186067413</v>
+        <v>749.5635023661077</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>-902.7753777983143</v>
+        <v>773.3786676152351</v>
       </c>
     </row>
   </sheetData>

--- a/new_data/BS_continuous_hedge.xlsx
+++ b/new_data/BS_continuous_hedge.xlsx
@@ -380,1702 +380,1702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>-91.16821566073217</v>
+        <v>155.2942617751159</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>-87.35346209422079</v>
+        <v>1314.14161503916</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>273.0040457132265</v>
+        <v>-79.47748643001232</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>405.786971084272</v>
+        <v>704.0098249137454</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>66.69207041387241</v>
+        <v>1173.775866012987</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>218.7993986964535</v>
+        <v>59.86554051974473</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>66.19247727388235</v>
+        <v>-169.4233251564316</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>674.5833712898993</v>
+        <v>-416.6012622580241</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>-693.8897294255598</v>
+        <v>315.5506930990034</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>-117.1617919057198</v>
+        <v>-323.1991515993893</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>507.5938526504582</v>
+        <v>671.8174392792798</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>1306.832307327348</v>
+        <v>20848.27175490239</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>-217.5515516225209</v>
+        <v>-19495.60165142112</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1018.700764820699</v>
+        <v>18765.65308897821</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>1322.066024288431</v>
+        <v>-15338.17707785995</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>89.60332073361897</v>
+        <v>16007.18922666661</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>-724.9995078248512</v>
+        <v>-25937.38970212372</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>998.7983469478718</v>
+        <v>25928.69095010845</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>55.29819663671879</v>
+        <v>-25018.74500419251</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>1991.154013478918</v>
+        <v>24023.25394606946</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>373.2664783476786</v>
+        <v>26520.78140720303</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>497.7412920205887</v>
+        <v>26517.35460750718</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>682.0034761809591</v>
+        <v>25180.97592026073</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>842.6744920986582</v>
+        <v>25194.59484550342</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>889.0510985489035</v>
+        <v>25378.63697633133</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>-737.0235315822019</v>
+        <v>-24719.03961655198</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>1049.550248749274</v>
+        <v>24769.19336045948</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>2144.529928183154</v>
+        <v>23185.86639144904</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>2101.028959686615</v>
+        <v>22736.1920838652</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>382.9601032819955</v>
+        <v>-19350.87097208797</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>-7.665729946763066</v>
+        <v>18148.31941416716</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>276.1011288219963</v>
+        <v>-103.8635216048247</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>1224.551581189287</v>
+        <v>-6858.611799515434</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>-923.1886243266292</v>
+        <v>7483.9028014796</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>1365.364194156063</v>
+        <v>-5904.245790899193</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>-1203.077514617241</v>
+        <v>6287.809816693033</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>-780.9145263567166</v>
+        <v>5953.796701358174</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>-2588.865176355377</v>
+        <v>4753.752830365494</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>897.176705038657</v>
+        <v>554.7567740000271</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>371.6000474615932</v>
+        <v>-1168.560893017614</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>543.6174823463284</v>
+        <v>-113.0097905589423</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>644.6558382718906</v>
+        <v>1395.631209205972</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>96.39545887199904</v>
+        <v>10694.18381754691</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>1860.613455057415</v>
+        <v>9219.450970747577</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>486.9169262737444</v>
+        <v>-8795.272873537977</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>272.2328613183626</v>
+        <v>-10382.35859337972</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>-228.7671018806048</v>
+        <v>-10906.77336512111</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>-515.5638166575483</v>
+        <v>-11197.71099393045</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>649.1338213044382</v>
+        <v>12470.3294095804</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>581.9889202706304</v>
+        <v>12264.53306889895</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>294.803901698303</v>
+        <v>-3198.931701368766</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>677.8803750089585</v>
+        <v>-1552.118989058286</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>-647.1039511810515</v>
+        <v>-10201.35955108894</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>-949.9915651313044</v>
+        <v>-8482.986435822026</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>-915.5355020710402</v>
+        <v>-9174.341773195645</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>-489.1339463509228</v>
+        <v>-8589.225915239318</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>-1109.81659529294</v>
+        <v>-10666.34500540953</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1488.48678287511</v>
+        <v>10503.68716478517</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>-1537.491523227475</v>
+        <v>-10095.35819037231</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>-1431.690149072248</v>
+        <v>3626.314172628608</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>-1541.411707226843</v>
+        <v>3605.553329474729</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>-2528.1959909392</v>
+        <v>2485.373575427096</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>-71.69118126070423</v>
+        <v>-4456.327576274214</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>38.5930312973736</v>
+        <v>-2519.813777405575</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>234.9319342523449</v>
+        <v>3138.158923690822</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>-231.8625891986976</v>
+        <v>16590.03815446447</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>621.6513724450193</v>
+        <v>202.4555355226677</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>-528.907974279826</v>
+        <v>-14645.71917203173</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>-711.7903291967335</v>
+        <v>-14732.92846415812</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>-543.0175978687486</v>
+        <v>-14744.66188952318</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>972.2836573718412</v>
+        <v>15500.53919227392</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>-642.3191850030745</v>
+        <v>-16560.57206805468</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>779.9062946366462</v>
+        <v>-3423.310428624887</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>-309.4532120445137</v>
+        <v>3945.300211252328</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>-274.5494354421371</v>
+        <v>4488.371105355147</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>162.3870722406809</v>
+        <v>3527.819049329094</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>92.64048949435518</v>
+        <v>614.6997379115376</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>163.6074842640005</v>
+        <v>818.0311772888298</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>345.3129852213695</v>
+        <v>1091.996200406758</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>370.9165147429072</v>
+        <v>-3885.140101760643</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>385.2674312979399</v>
+        <v>-3547.379499610423</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>374.7549321638443</v>
+        <v>-3274.929308752971</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>718.7576651852791</v>
+        <v>-3496.692265139223</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>614.4738782039836</v>
+        <v>-2992.954516680484</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>516.5243599348147</v>
+        <v>-3167.721349415769</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>373.6034225352265</v>
+        <v>-7637.797768179441</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>339.9051098651975</v>
+        <v>-7768.593530182908</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>-1033.612191297618</v>
+        <v>-1494.805269195215</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>-656.5243272564478</v>
+        <v>-5890.247006186628</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>-32.69486080900631</v>
+        <v>-4757.241549200168</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>88.01097983755976</v>
+        <v>-3894.877824744544</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>168.5507125119166</v>
+        <v>-9128.323471080384</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>-199.1320960580386</v>
+        <v>-6703.240013673208</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>-72.79876565465598</v>
+        <v>9496.53817616338</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>-329.531110881746</v>
+        <v>7331.328213300613</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>1207.617493606764</v>
+        <v>-8194.953591643916</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>1069.59609909002</v>
+        <v>-7338.855356418931</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>848.3629757749726</v>
+        <v>-2031.420407505945</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>-56.57144686961616</v>
+        <v>-53.26916582018634</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>-243.1796128478878</v>
+        <v>-429.719285109568</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>-107.7216559477238</v>
+        <v>-58.38352038210314</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>200.2836708948369</v>
+        <v>-272.1764826261218</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>-55.43470247318428</v>
+        <v>-198.4644335005844</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>182.6811849970582</v>
+        <v>1208.443664910113</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>235.478763115918</v>
+        <v>1240.947788735248</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>150.0018983565305</v>
+        <v>2180.33396579995</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>-84.65459623748681</v>
+        <v>-61.70875633524159</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>975.5744355064141</v>
+        <v>5482.222262406707</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>92.49016556836388</v>
+        <v>-3025.163354244864</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>4.850316319099801</v>
+        <v>-3354.630932299837</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>122.3145820553346</v>
+        <v>3006.179521790479</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>168.6988774098444</v>
+        <v>954.4427815390335</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>188.5259842932484</v>
+        <v>1246.474839391833</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>474.0241230798239</v>
+        <v>1641.161515890795</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>115.3246385588478</v>
+        <v>-361.7493842712638</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>120.6630192772909</v>
+        <v>97.23345351616844</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>248.1118422906653</v>
+        <v>1233.503745657138</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>318.3052757910221</v>
+        <v>1259.43683450534</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>-58.59690644341712</v>
+        <v>-16.04636767762987</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>523.0012438827301</v>
+        <v>1421.733008271862</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>330.9977539097773</v>
+        <v>1231.495343092422</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>572.1773408911495</v>
+        <v>1540.54469883611</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>700.5744745706005</v>
+        <v>1579.952708699796</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>661.1209354430642</v>
+        <v>1502.49673860405</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>76.10176589337345</v>
+        <v>-60805.45600652086</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>110.0740964383404</v>
+        <v>-62060.26451284286</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>-43.46195803835833</v>
+        <v>-61052.8926601655</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>488.7445506472644</v>
+        <v>-60406.3731251725</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>344.5717599131317</v>
+        <v>-63174.42664611954</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>-117.1636295488436</v>
+        <v>63672.06249381856</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>-113.0726895469792</v>
+        <v>-51907.53366599275</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>-612.4831212456547</v>
+        <v>-53692.94350098039</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>-257.0655932874671</v>
+        <v>-53257.87876056931</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>-177.8365246494876</v>
+        <v>-51091.56722250313</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>-119.5366480131302</v>
+        <v>-50899.8619671645</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>-64.34129900144909</v>
+        <v>-50948.12569560677</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>-31.72544417815319</v>
+        <v>-51928.70446837266</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>-196.9461136920934</v>
+        <v>-54175.88200893237</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>-178.5961607362714</v>
+        <v>-53736.45180830042</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>378.1663915040198</v>
+        <v>-54984.63008656706</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>106.1201142904728</v>
+        <v>-55277.2690914494</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>-418.0005815208447</v>
+        <v>-48700.82668825822</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>-623.4127584899388</v>
+        <v>-50075.39791504665</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>-518.0239044742491</v>
+        <v>-50877.71448602031</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>-716.1109941063531</v>
+        <v>-46097.80184570808</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>-846.714313047833</v>
+        <v>-46964.62510964565</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>-824.5111321409267</v>
+        <v>-45089.00766983237</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>-771.13724517557</v>
+        <v>-44947.61134674039</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>-301.0465764620334</v>
+        <v>-39988.45623634795</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>468.846771181352</v>
+        <v>42766.00150137037</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>69.48138611361372</v>
+        <v>403.1072679836582</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>170.5378886486746</v>
+        <v>-396.153785032202</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>-757.4518091563973</v>
+        <v>-60676.94449802825</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>-829.9612865186529</v>
+        <v>-60715.63406119579</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>-780.2064149875679</v>
+        <v>-64317.15279889073</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>-995.1671801309998</v>
+        <v>-64792.45293658922</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>-149.6802584778402</v>
+        <v>-65317.88703375412</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>-568.9665160942162</v>
+        <v>-65747.59344966632</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>-358.1665095281391</v>
+        <v>921.639977696396</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>-518.7522310487369</v>
+        <v>389.0358109230201</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>-751.702040069458</v>
+        <v>-511.102804841316</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>-445.8438367757167</v>
+        <v>-110.3020538907348</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>-646.2084019185061</v>
+        <v>-520.5502852573978</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>-549.3731121524198</v>
+        <v>-255.0277303742537</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>-419.5784350539609</v>
+        <v>-910.2481979302692</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>-494.529784128299</v>
+        <v>-895.7861042303273</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>-339.3443298973527</v>
+        <v>-543.3257564952908</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>-254.7789038923873</v>
+        <v>-622.9014101912275</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>-601.3142031357993</v>
+        <v>-60895.47847105091</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>-479.2683072987292</v>
+        <v>-58351.50359100624</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>-472.2549634695877</v>
+        <v>-58121.76070662417</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>-497.8179893945792</v>
+        <v>-63185.22709826731</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>-233.6837690673404</v>
+        <v>-63075.41906224677</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>-197.1451115503566</v>
+        <v>-63046.56977817711</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>60.43826643060896</v>
+        <v>3634.338246249179</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>100.6804504917654</v>
+        <v>3296.985042464272</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>151.7556221195771</v>
+        <v>3342.447813566642</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>75.77171169397526</v>
+        <v>3242.603745990358</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>220.6388013278092</v>
+        <v>3471.798244259083</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>58.08182637302828</v>
+        <v>1287.93207996687</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>581.5281282540867</v>
+        <v>3648.80205561165</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>639.6659889662729</v>
+        <v>-54703.36284469137</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>-91.07481961229109</v>
+        <v>-72223.12679813978</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>254.5099800638703</v>
+        <v>69371.30443903081</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>896.3584048285204</v>
+        <v>-73876.94210572295</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>989.19660834627</v>
+        <v>-73373.90451060863</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>520.2201527114578</v>
+        <v>-73849.6963704665</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>397.8895894449599</v>
+        <v>-80450.2260066749</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>367.0486190814532</v>
+        <v>-80925.66004764361</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>428.5230897468647</v>
+        <v>-80831.49905943872</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>711.825924844066</v>
+        <v>5458.598092954115</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>820.9515961276214</v>
+        <v>5560.93314563788</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>781.5643665946634</v>
+        <v>5494.6570561133</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>1357.040107415121</v>
+        <v>-49058.99560961656</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>1725.141314925012</v>
+        <v>-49456.18754358679</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>-1951.79448092534</v>
+        <v>59400.34768087484</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>-67.04297713258234</v>
+        <v>3615.367518953476</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>807.270846482221</v>
+        <v>-1195.696761240588</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>-394.8614470227326</v>
+        <v>3242.772031036525</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>-199.8545711261784</v>
+        <v>3195.256612730814</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>-442.131243518556</v>
+        <v>2867.927671192437</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>-706.9077705204746</v>
+        <v>1894.523705766278</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>-328.2557013933277</v>
+        <v>1807.214615861551</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>-142.9777950001298</v>
+        <v>3006.607757336752</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>-294.2557949984668</v>
+        <v>3748.986642046582</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>-467.8115428519493</v>
+        <v>2910.110127021846</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>-295.6164261356607</v>
+        <v>3111.018121283609</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>-275.7766534647608</v>
+        <v>3679.291764280094</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>-172.8961703729555</v>
+        <v>2958.797290633112</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>-252.1720041476468</v>
+        <v>2865.32728423134</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>81.74568147718665</v>
+        <v>-77320.62163005034</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>-467.6741560251085</v>
+        <v>-62767.95693794269</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>-632.8378093556809</v>
+        <v>-62856.29798933925</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>-466.0614566686327</v>
+        <v>-62523.50516807375</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>-540.3792845208465</v>
+        <v>-62727.19224887715</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>-598.4495240505493</v>
+        <v>-62959.06511913069</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>250.4988471220598</v>
+        <v>5867.138747758211</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>-162.2693903830125</v>
+        <v>3317.677219075654</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>-336.9875848909543</v>
+        <v>2105.444056993915</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>-428.6412416076184</v>
+        <v>450.2181948548036</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>-484.5706142844476</v>
+        <v>1082.009922850655</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>-78.07620789549213</v>
+        <v>2252.987537195151</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>48.5212071288552</v>
+        <v>2173.694225250227</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>-53.55438556174489</v>
+        <v>2110.132311397542</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>-173.8067370434722</v>
+        <v>3676.368786729018</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>-188.698535434674</v>
+        <v>3585.201993948066</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>-245.7006008778686</v>
+        <v>2871.108678502259</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>153.5271354450958</v>
+        <v>3424.465305647711</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>-305.2740095401299</v>
+        <v>408.5284890715231</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>51.22855216872587</v>
+        <v>2185.143023333315</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>114.2456264729907</v>
+        <v>2047.252031341452</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>284.1094522179517</v>
+        <v>2973.368952204579</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>-121.3987913532311</v>
+        <v>3412.353359968442</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>-227.3175155646977</v>
+        <v>31032.79848658621</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>-197.7994016274283</v>
+        <v>30893.40515459322</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>-112.8512157043722</v>
+        <v>28439.94028596287</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>-317.2427941174733</v>
+        <v>29197.4047581399</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>-271.1910516416937</v>
+        <v>29035.97190310188</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>-214.0019706283401</v>
+        <v>29155.84321746047</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>-254.2577432281027</v>
+        <v>26511.34316295659</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>-47.23145061339491</v>
+        <v>17358.24985896407</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>-107.4583336124402</v>
+        <v>-1021.494207331274</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>-252.4206228623638</v>
+        <v>30259.83719080457</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>-199.5132739959399</v>
+        <v>27363.18849675852</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>-102.6407576895163</v>
+        <v>27789.01999422626</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>-158.4476256020587</v>
+        <v>25086.49565815126</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>22.72197719991837</v>
+        <v>24878.49105409051</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>-12.28445328837198</v>
+        <v>-953.3599839892365</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>-132.9047839125476</v>
+        <v>28098.80146135837</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>15.55497259985355</v>
+        <v>28851.87971246705</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>450.454049301511</v>
+        <v>27362.0090511862</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>299.2335163047049</v>
+        <v>2801.407548157481</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>213.5723495453878</v>
+        <v>2451.115540787132</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>682.8287944236922</v>
+        <v>32602.4606074973</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>895.2474139456798</v>
+        <v>20927.61143276509</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>866.791243416873</v>
+        <v>-1685.40806651809</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>890.4259621953976</v>
+        <v>-1036.247669879524</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>907.0731723346942</v>
+        <v>-528.0076333882103</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>941.1396829037335</v>
+        <v>173.4839256136722</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>924.4200346453431</v>
+        <v>7423.361609825116</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>876.7540484325783</v>
+        <v>1131.428524583207</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>1216.994143156704</v>
+        <v>322.4370029316153</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>1206.769707132568</v>
+        <v>129.4821055735591</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>1124.992367466901</v>
+        <v>4515.937721955638</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>1165.85748835337</v>
+        <v>4562.857583015804</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>1249.12960255309</v>
+        <v>6570.269934812061</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>1133.567720716985</v>
+        <v>6492.060009332882</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>783.9508865653161</v>
+        <v>842.6259688637238</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>1109.621854707874</v>
+        <v>33548.73434231399</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>903.0175782435548</v>
+        <v>31197.7868340044</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>1150.774295345694</v>
+        <v>-1657.026416520848</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>1145.471219050125</v>
+        <v>-1925.01685234803</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>1102.126409172454</v>
+        <v>-1593.508726672713</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>1177.217807094282</v>
+        <v>-1340.647044382169</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>1194.348553891006</v>
+        <v>-906.7617285593037</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>1196.756692160164</v>
+        <v>-426.1702139664978</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>1209.618765178132</v>
+        <v>-424.9853194994653</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>1222.353594355591</v>
+        <v>218.7563984829737</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>1119.818766623243</v>
+        <v>4278.969574996601</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>783.428813228212</v>
+        <v>940.1060369288008</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>1287.558556329204</v>
+        <v>-23801.48318201219</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>1316.756310661816</v>
+        <v>-24019.27296326749</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>3677.72142378441</v>
+        <v>-25288.83611298444</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>-1636.835893848684</v>
+        <v>27971.67055480168</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>-145.284936637339</v>
+        <v>26476.01584097429</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>2097.870467267212</v>
+        <v>-23134.59830926514</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>1680.839443016031</v>
+        <v>-44182.62490387444</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>2417.474229851884</v>
+        <v>-44614.88554327848</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>2575.007140426181</v>
+        <v>-44005.25160959183</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>2511.440885971757</v>
+        <v>46195.50729895832</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>-2488.378050969757</v>
+        <v>40587.29721514264</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>-107.4639965564955</v>
+        <v>745.5521052788687</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>-61.67034331164405</v>
+        <v>694.1623105411554</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>16.8655372713868</v>
+        <v>461.91505786741</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>-20.726294094736</v>
+        <v>440.0212253041752</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>105.3086498606349</v>
+        <v>-911.1154032824097</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>108.8238310832087</v>
+        <v>-1221.399095763171</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>-177.2969717443899</v>
+        <v>-1430.352492281837</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>-125.9737552158659</v>
+        <v>404.0475535680217</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>-127.7300307797959</v>
+        <v>444.2559983382791</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>-295.5072670506034</v>
+        <v>616.0801916084538</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>248.5428641532371</v>
+        <v>2308.411578639195</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>1388.295244682487</v>
+        <v>31200.50563739586</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>79.54429285466612</v>
+        <v>371.8214137252124</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>316.7594714554131</v>
+        <v>1369.424766844208</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>1394.311028608433</v>
+        <v>6949.520894363042</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>1469.464586372527</v>
+        <v>43272.18371283742</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>1504.609528260057</v>
+        <v>43161.73434580875</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>1567.302058902228</v>
+        <v>44965.52626118184</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>1262.183875247963</v>
+        <v>45817.30141370584</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>1194.225201288833</v>
+        <v>44851.73448693314</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>1396.165141432683</v>
+        <v>42794.07785211189</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>1363.935189072103</v>
+        <v>39817.34372605288</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>1307.938754299762</v>
+        <v>35974.94652376873</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>1698.911458635128</v>
+        <v>6881.675629693498</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>913.8018386000359</v>
+        <v>-32027.3291136604</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>943.9615195707929</v>
+        <v>-30575.74995556257</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>850.2733834210532</v>
+        <v>-33005.55744926292</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>1988.527055289473</v>
+        <v>48159.87289508732</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>844.5178435304272</v>
+        <v>42835.44315461927</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>1114.631669486861</v>
+        <v>42320.68697508901</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>1199.934604562402</v>
+        <v>42715.67858260446</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>1471.211067272756</v>
+        <v>43644.25792138996</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>1628.602057006965</v>
+        <v>43545.06978707716</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>1482.563984570705</v>
+        <v>45457.37039442166</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>1315.770911723579</v>
+        <v>45238.59378453386</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>1097.494236920406</v>
+        <v>44143.19706578356</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>1251.670885808771</v>
+        <v>44331.9258537639</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>1649.504299737039</v>
+        <v>38083.28745413481</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>1435.72293485102</v>
+        <v>35561.07490240392</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>1748.772454490861</v>
+        <v>542.4019372208876</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>257.5230180377651</v>
+        <v>19039.29534267216</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>-170.8028365027877</v>
+        <v>-16450.20450726449</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>-281.9534096067132</v>
+        <v>-16715.36395861079</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>191.9831563138227</v>
+        <v>17717.40278719423</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>-45.50104826483612</v>
+        <v>-17292.36931432409</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>-67.36808991704908</v>
+        <v>-16750.12630221334</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>-357.93928945068</v>
+        <v>-24512.72017573458</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>-307.4994597240988</v>
+        <v>-24314.57229718191</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>-331.9588395292481</v>
+        <v>-23800.78856735655</v>
       </c>
     </row>
   </sheetData>
@@ -2098,1152 +2098,1152 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>-155.9716533801915</v>
+        <v>-446.7921331650156</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>316.804155489149</v>
+        <v>674.1350065442542</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>59.36129116220692</v>
+        <v>31.38466307169678</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>-15.98497120086364</v>
+        <v>48.00407969663507</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>-684.9126760444069</v>
+        <v>-5438.335967180993</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>130.8206361122739</v>
+        <v>-4426.403818486438</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>1930.608040618585</v>
+        <v>-1838.851703803405</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>1468.43726039193</v>
+        <v>-2286.734001919662</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>2280.367541560284</v>
+        <v>-1771.005097214934</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>2377.635579446038</v>
+        <v>-1417.443554330769</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>1223.534838161579</v>
+        <v>-25.33584679402043</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>961.4328971849624</v>
+        <v>6961.598103989685</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>974.1550792058417</v>
+        <v>6578.352074450982</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1064.030943163198</v>
+        <v>6995.933520205477</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>-736.7246841526306</v>
+        <v>-6037.953211479909</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>-822.8818121108519</v>
+        <v>-6047.903916861592</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>717.7934199945995</v>
+        <v>643.8085838061568</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1060.965187826414</v>
+        <v>1410.607724016222</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1367.209431660888</v>
+        <v>1331.549649612138</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>1032.882565303911</v>
+        <v>980.7562419398701</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>98.15599068901058</v>
+        <v>57.67806793261152</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>3.543476513063692</v>
+        <v>-81.37410554656269</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>89.36169673571959</v>
+        <v>-72.90112768848724</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>-160.6952000343611</v>
+        <v>-334.4787784812466</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>126.3770324183461</v>
+        <v>-2385.815048981724</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>584.6076716092466</v>
+        <v>-1094.751810206033</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>435.2774234491512</v>
+        <v>-1215.891065108554</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>587.8699193968164</v>
+        <v>-2031.633429978755</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>-362.3582318826452</v>
+        <v>-2753.857986749549</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>-23.70326233199103</v>
+        <v>-2464.602744080427</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>-593.4246679124649</v>
+        <v>-3179.095514499279</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>-625.6799105979949</v>
+        <v>-3208.924759275429</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>776.7587312315542</v>
+        <v>3818.95463315277</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>571.7563312326226</v>
+        <v>-682.3644303428772</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>-204.315396090426</v>
+        <v>1048.007402026373</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>-559.8766252767882</v>
+        <v>301.4736435780032</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>879.7353148719716</v>
+        <v>15.87358727291455</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>706.3569473351374</v>
+        <v>-2374.75283507066</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>506.8687300070026</v>
+        <v>-2301.335290231942</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>366.4927808326227</v>
+        <v>1514.628366357856</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>426.116707504332</v>
+        <v>-3509.615267882419</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>164.3588221142213</v>
+        <v>-4246.6608449012</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>-270.9509160051385</v>
+        <v>4062.382537269304</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>-313.5268071488562</v>
+        <v>-343.3450547120176</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>264.3059770772796</v>
+        <v>-667.7824528916568</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>302.4044077407001</v>
+        <v>-663.3653815341466</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>268.9064138433297</v>
+        <v>-649.8395315011569</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>428.0542703365442</v>
+        <v>-799.0032335058604</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>-301.0900941941679</v>
+        <v>1006.929968586527</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>326.5839562830366</v>
+        <v>-913.8397640275774</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>-245.7643727536564</v>
+        <v>1065.368749834856</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>27.11271967553812</v>
+        <v>923.810366014269</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>614.8597987322244</v>
+        <v>-1246.058440158046</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>683.2396421265958</v>
+        <v>-1261.709279975353</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>892.82194850453</v>
+        <v>2546.598932051464</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>-736.3989524592533</v>
+        <v>-2317.462042745088</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>-472.1832674422969</v>
+        <v>-2143.411698737942</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>-405.7245511723614</v>
+        <v>-3429.828449636034</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>134.9594911752074</v>
+        <v>-1617.187346914733</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>2.682793440352079</v>
+        <v>-1707.801346676168</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>253.5340333558685</v>
+        <v>-1592.295976223539</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>328.2205731174886</v>
+        <v>-1517.377147797747</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>-115.9736653699038</v>
+        <v>3097.537123626395</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>-266.7226623391598</v>
+        <v>-1822.398462232963</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>427.62988517134</v>
+        <v>-628.1892138472194</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>157.7262574692386</v>
+        <v>-851.5163208941522</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>334.6854208451796</v>
+        <v>-684.9782042587553</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>773.8889909156014</v>
+        <v>-689.2641543390037</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>-432.6186118653186</v>
+        <v>-1658.647719987267</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>-449.8028396860273</v>
+        <v>-2297.157185773041</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>426.64991520581</v>
+        <v>-2066.42560570254</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>-146.1423641061974</v>
+        <v>2345.260383719991</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>-64.18432648078442</v>
+        <v>1917.32729342618</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>-809.383310909187</v>
+        <v>1672.909428155504</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>1142.240669529272</v>
+        <v>-1136.072876864427</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>1440.135619386255</v>
+        <v>-1034.410244858191</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>-261.3278304291375</v>
+        <v>-481.9875865052568</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>1387.382219174359</v>
+        <v>-2271.061481152582</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>-178.9295554450537</v>
+        <v>-464.44142784004</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>-542.7104747094545</v>
+        <v>3241.991568006513</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>-532.0110179761577</v>
+        <v>3250.64865883198</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>-623.7330503556959</v>
+        <v>1257.778480236882</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>-642.7088876881135</v>
+        <v>1247.032177549445</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>-630.08319991605</v>
+        <v>1583.892424463653</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>-735.3630382283663</v>
+        <v>1485.770858469354</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>-842.8891075747952</v>
+        <v>839.7753104772164</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>-646.3449851343321</v>
+        <v>820.1419190425404</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>-1351.558060047019</v>
+        <v>110.9020841258243</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>-950.8344425187406</v>
+        <v>-1852.649942392972</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>-279.5481169867544</v>
+        <v>1697.321580925432</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>-388.2949503734799</v>
+        <v>1649.545579173511</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>-460.8028201478919</v>
+        <v>412.5118345637984</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>24.15786166210705</v>
+        <v>-4.684731537236132</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>-191.285518133947</v>
+        <v>-257.1692623120076</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>-31.3206509475222</v>
+        <v>-66.36540227425337</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>115.8946414287049</v>
+        <v>315.2510315485187</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>55.27302713400498</v>
+        <v>-3.033055322392245</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>-10.65640983821207</v>
+        <v>-99.98906757299811</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>126.7137950296369</v>
+        <v>63.81542325215922</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>-26.52348426144751</v>
+        <v>-2502.576598087498</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>97.28099095439165</v>
+        <v>-2347.46150611448</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>120.7260880284895</v>
+        <v>-2190.662266716649</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>276.5899505404508</v>
+        <v>-2122.571467446047</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>132.2981625078806</v>
+        <v>165.3537417434565</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>308.3786616814328</v>
+        <v>536.6631939356905</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>292.0038133063976</v>
+        <v>841.0290991697514</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>140.0871954401449</v>
+        <v>59.05299585410739</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>-95.5100618263581</v>
+        <v>-15390.39434164582</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>134.7068573752684</v>
+        <v>-15039.32016116627</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>172.4154172156686</v>
+        <v>-14451.36515253874</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>-172.2771783716254</v>
+        <v>-15196.85714380926</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>-361.1807509612462</v>
+        <v>-15653.67886159812</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>-71.35363281452159</v>
+        <v>-90.82417923590172</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>-74.71352164071978</v>
+        <v>80.49396510487701</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>-120.5345500411319</v>
+        <v>-63.97900369352465</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>-32.47221117859028</v>
+        <v>113.7110648321083</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>-25.76004818917155</v>
+        <v>42.05400911135023</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>22.295733127213</v>
+        <v>-45.04768173559683</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>34.30580212035841</v>
+        <v>-84.1749137595548</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>-355.6676104471539</v>
+        <v>434.759920909467</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>-526.2278849854915</v>
+        <v>-444.605627398361</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>-610.0333957041613</v>
+        <v>-557.7581565431009</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>-706.3190488132411</v>
+        <v>-551.7448394540805</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>665.8337651667821</v>
+        <v>13183.82816898718</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>-304.2060011340186</v>
+        <v>11347.37636577449</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>-283.4054807679713</v>
+        <v>11370.51968960688</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>35.48446845235266</v>
+        <v>-16113.75257767358</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>173.850885717482</v>
+        <v>15841.99405622133</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>838.9155999191732</v>
+        <v>-15137.25954689809</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>822.4809934826685</v>
+        <v>-15026.91467127534</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>-276.7247348688192</v>
+        <v>614.5462947644073</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>-285.1131509852165</v>
+        <v>553.124998888621</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>-169.9522974498082</v>
+        <v>537.6842919736739</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>-105.7005410711486</v>
+        <v>985.2486920389756</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>-129.8354543928564</v>
+        <v>890.1426702217112</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>-116.1188233098269</v>
+        <v>850.5676283392471</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>-35.927885965842</v>
+        <v>722.0385955998668</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>-1488.648704805894</v>
+        <v>-17050.28945617439</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>-1029.195212060178</v>
+        <v>-16398.29006526284</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>-491.6835374198574</v>
+        <v>702.7023859046324</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>-682.0463535315753</v>
+        <v>188.8588568637634</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>-447.4720428287321</v>
+        <v>362.149219478249</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>-401.8921973937979</v>
+        <v>445.268906808538</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>-358.6539737521297</v>
+        <v>373.1869051483366</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>-295.0937707877927</v>
+        <v>414.1559501048749</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>-287.9585085808971</v>
+        <v>1024.658002463899</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>-419.179137248609</v>
+        <v>872.8772985758783</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>-392.5712356602095</v>
+        <v>888.8407788846505</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>-380.2131808954196</v>
+        <v>731.6715105397409</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>-341.8863715867558</v>
+        <v>888.2606563379496</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>-372.8772853939203</v>
+        <v>840.3401977248391</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>-261.0935892710616</v>
+        <v>624.9011683369097</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>-127.0022101486752</v>
+        <v>644.1579743514778</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>-62.44493879923333</v>
+        <v>692.9564167199342</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>20.62328022564123</v>
+        <v>1370.45814783133</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>-295.6125978644586</v>
+        <v>1033.704131165426</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>-350.702983230292</v>
+        <v>798.2380530698134</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>-411.91706344533</v>
+        <v>750.2372887168519</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>1128.489641265836</v>
+        <v>17966.91687536884</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>-829.5891842241792</v>
+        <v>-16274.78254014211</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>-304.1368756456202</v>
+        <v>-16967.05907836029</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>-247.0407052941624</v>
+        <v>-16781.83276989167</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>-466.4491096110773</v>
+        <v>532.388927876897</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>-182.0426749773089</v>
+        <v>769.6870269192341</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>65.25689377159641</v>
+        <v>1466.3565432875</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>-236.5041199445015</v>
+        <v>1144.07246554405</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>353.3553453425752</v>
+        <v>-10905.80884827535</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>-312.2632445991318</v>
+        <v>8081.525661442985</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>-284.1165117622405</v>
+        <v>8058.613488966603</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>-164.0913097759065</v>
+        <v>8212.79271134058</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>-359.5014763309329</v>
+        <v>8057.958760567244</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>-318.0914233708016</v>
+        <v>8133.715313606991</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>-272.4098299848122</v>
+        <v>8181.331865241882</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>606.6767468964886</v>
+        <v>-8969.159011353999</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>-137.9968817730007</v>
+        <v>8451.170832503247</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>-92.51128840018491</v>
+        <v>8498.661853865311</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>-47.17930827935882</v>
+        <v>8417.400089099683</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>647.7251085875758</v>
+        <v>9176.650388228263</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>704.2241348212215</v>
+        <v>8644.279037067592</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>836.4698697594041</v>
+        <v>711.2322233032537</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>867.9968407774611</v>
+        <v>1269.879015245019</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>-1193.840918121556</v>
+        <v>4269.208732992021</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>-1203.908257665335</v>
+        <v>4294.115827948426</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>-872.5485524988217</v>
+        <v>4630.589182400159</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>-716.3848615564584</v>
+        <v>4378.858566295108</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>-650.2049288846802</v>
+        <v>3975.001193330538</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>-664.2606972441999</v>
+        <v>3844.119096480947</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>-1409.578606623631</v>
+        <v>3696.822897513401</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>-2020.465622208352</v>
+        <v>2627.220193146817</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>1579.268467291663</v>
+        <v>-7680.896541563665</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>-1536.579933445604</v>
+        <v>7234.287069508102</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>1303.618099213312</v>
+        <v>-6359.186085863698</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>1773.796276009549</v>
+        <v>-5701.720597898799</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>1685.464589856051</v>
+        <v>-5650.989438577915</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>1337.398432399597</v>
+        <v>-4836.430933921918</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>1781.522683758111</v>
+        <v>11524.00512745783</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>1410.08357507517</v>
+        <v>11433.44770142349</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>766.5119560497506</v>
+        <v>2113.777432681525</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>-2464.121598701417</v>
+        <v>2202.089990180386</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>65.23227551280428</v>
+        <v>361.591679519976</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>66.2320148247757</v>
+        <v>-209.808426564139</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>-31.09150000162277</v>
+        <v>-258.8052617467645</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>-37.83905631307456</v>
+        <v>-234.6511676361942</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>163.6066620441055</v>
+        <v>382.3243929939034</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>-87.60754064067009</v>
+        <v>230.9659990339024</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>-7.706267477877158</v>
+        <v>319.7117390570044</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>213.0631445569742</v>
+        <v>-97.65445149970654</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>-67.56769763460737</v>
+        <v>321.9401670376308</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>-263.6726943504501</v>
+        <v>-15.70182175134904</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>284.6237542425838</v>
+        <v>52.56862247030742</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>614.4415022912683</v>
+        <v>1163.253726960111</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>419.435902613533</v>
+        <v>1518.017491998433</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>1341.036567902796</v>
+        <v>2815.522028372557</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>1307.233921393821</v>
+        <v>2782.841778514142</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>1357.472420867636</v>
+        <v>3348.549475729858</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>1427.741269882967</v>
+        <v>11235.78618177056</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>1458.515782401076</v>
+        <v>11121.94905213408</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>1443.18982673391</v>
+        <v>10266.45028683328</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>1511.742633660552</v>
+        <v>1903.137610703635</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>1498.719854344495</v>
+        <v>1843.257555421068</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>189.5581471292882</v>
+        <v>471.9048079435444</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>974.799087344236</v>
+        <v>-5331.194827536196</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>1037.548028176686</v>
+        <v>-4910.379643359619</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>187.3011248792616</v>
+        <v>4837.021167349404</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>182.477633612066</v>
+        <v>4905.745130582453</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>172.1410323514065</v>
+        <v>4926.636210886103</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>-248.5097877100411</v>
+        <v>-5135.124613103801</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>-297.0028979272719</v>
+        <v>-4886.978844385989</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>749.5635023661077</v>
+        <v>-3933.454290717635</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>773.3786676152351</v>
+        <v>-3949.811373433931</v>
       </c>
     </row>
   </sheetData>

--- a/new_data/BS_continuous_hedge.xlsx
+++ b/new_data/BS_continuous_hedge.xlsx
@@ -380,1702 +380,1702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>155.2942617751159</v>
+        <v>-91.16821566073217</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1314.14161503916</v>
+        <v>-87.35346209422079</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>-79.47748643001232</v>
+        <v>273.0040457132265</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>704.0098249137454</v>
+        <v>405.786971084272</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>1173.775866012987</v>
+        <v>66.69207041387241</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>59.86554051974473</v>
+        <v>218.7993986964535</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>-169.4233251564316</v>
+        <v>66.19247727388235</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>-416.6012622580241</v>
+        <v>674.5833712898993</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>315.5506930990034</v>
+        <v>-693.8897294255598</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>-323.1991515993893</v>
+        <v>-117.1617919057198</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>671.8174392792798</v>
+        <v>507.5938526504582</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>20848.27175490239</v>
+        <v>1306.832307327348</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>-19495.60165142112</v>
+        <v>-217.5515516225209</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>18765.65308897821</v>
+        <v>1018.700764820699</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>-15338.17707785995</v>
+        <v>1322.066024288431</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>16007.18922666661</v>
+        <v>89.60332073361897</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>-25937.38970212372</v>
+        <v>-724.9995078248512</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>25928.69095010845</v>
+        <v>998.7983469478718</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>-25018.74500419251</v>
+        <v>55.29819663671879</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>24023.25394606946</v>
+        <v>1991.154013478918</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>26520.78140720303</v>
+        <v>373.2664783476786</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>26517.35460750718</v>
+        <v>497.7412920205887</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>25180.97592026073</v>
+        <v>682.0034761809591</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>25194.59484550342</v>
+        <v>842.6744920986582</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>25378.63697633133</v>
+        <v>889.0510985489035</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>-24719.03961655198</v>
+        <v>-737.0235315822019</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>24769.19336045948</v>
+        <v>1049.550248749274</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>23185.86639144904</v>
+        <v>2144.529928183154</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>22736.1920838652</v>
+        <v>2101.028959686615</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>-19350.87097208797</v>
+        <v>382.9601032819955</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>18148.31941416716</v>
+        <v>-7.665729946763066</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>-103.8635216048247</v>
+        <v>276.1011288219963</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>-6858.611799515434</v>
+        <v>1224.551581189287</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>7483.9028014796</v>
+        <v>-923.1886243266292</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>-5904.245790899193</v>
+        <v>1365.364194156063</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>6287.809816693033</v>
+        <v>-1203.077514617241</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>5953.796701358174</v>
+        <v>-780.9145263567166</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>4753.752830365494</v>
+        <v>-2588.865176355377</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>554.7567740000271</v>
+        <v>897.176705038657</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>-1168.560893017614</v>
+        <v>371.6000474615932</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>-113.0097905589423</v>
+        <v>543.6174823463284</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>1395.631209205972</v>
+        <v>644.6558382718906</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>10694.18381754691</v>
+        <v>96.39545887199904</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>9219.450970747577</v>
+        <v>1860.613455057415</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>-8795.272873537977</v>
+        <v>486.9169262737444</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>-10382.35859337972</v>
+        <v>272.2328613183626</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>-10906.77336512111</v>
+        <v>-228.7671018806048</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>-11197.71099393045</v>
+        <v>-515.5638166575483</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>12470.3294095804</v>
+        <v>649.1338213044382</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>12264.53306889895</v>
+        <v>581.9889202706304</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>-3198.931701368766</v>
+        <v>294.803901698303</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>-1552.118989058286</v>
+        <v>677.8803750089585</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>-10201.35955108894</v>
+        <v>-647.1039511810515</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>-8482.986435822026</v>
+        <v>-949.9915651313044</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>-9174.341773195645</v>
+        <v>-915.5355020710402</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>-8589.225915239318</v>
+        <v>-489.1339463509228</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>-10666.34500540953</v>
+        <v>-1109.81659529294</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>10503.68716478517</v>
+        <v>1488.48678287511</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>-10095.35819037231</v>
+        <v>-1537.491523227475</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>3626.314172628608</v>
+        <v>-1431.690149072248</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>3605.553329474729</v>
+        <v>-1541.411707226843</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>2485.373575427096</v>
+        <v>-2528.1959909392</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>-4456.327576274214</v>
+        <v>-71.69118126070423</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>-2519.813777405575</v>
+        <v>38.5930312973736</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>3138.158923690822</v>
+        <v>234.9319342523449</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>16590.03815446447</v>
+        <v>-231.8625891986976</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>202.4555355226677</v>
+        <v>621.6513724450193</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>-14645.71917203173</v>
+        <v>-528.907974279826</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>-14732.92846415812</v>
+        <v>-711.7903291967335</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>-14744.66188952318</v>
+        <v>-543.0175978687486</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>15500.53919227392</v>
+        <v>972.2836573718412</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>-16560.57206805468</v>
+        <v>-642.3191850030745</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>-3423.310428624887</v>
+        <v>779.9062946366462</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>3945.300211252328</v>
+        <v>-309.4532120445137</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>4488.371105355147</v>
+        <v>-274.5494354421371</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>3527.819049329094</v>
+        <v>162.3870722406809</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>614.6997379115376</v>
+        <v>92.64048949435518</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>818.0311772888298</v>
+        <v>163.6074842640005</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>1091.996200406758</v>
+        <v>345.3129852213695</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>-3885.140101760643</v>
+        <v>370.9165147429072</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>-3547.379499610423</v>
+        <v>385.2674312979399</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>-3274.929308752971</v>
+        <v>374.7549321638443</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>-3496.692265139223</v>
+        <v>718.7576651852791</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>-2992.954516680484</v>
+        <v>614.4738782039836</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>-3167.721349415769</v>
+        <v>516.5243599348147</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>-7637.797768179441</v>
+        <v>373.6034225352265</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>-7768.593530182908</v>
+        <v>339.9051098651975</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>-1494.805269195215</v>
+        <v>-1033.612191297618</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>-5890.247006186628</v>
+        <v>-656.5243272564478</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>-4757.241549200168</v>
+        <v>-32.69486080900631</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>-3894.877824744544</v>
+        <v>88.01097983755976</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>-9128.323471080384</v>
+        <v>168.5507125119166</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>-6703.240013673208</v>
+        <v>-199.1320960580386</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>9496.53817616338</v>
+        <v>-72.79876565465598</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>7331.328213300613</v>
+        <v>-329.531110881746</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>-8194.953591643916</v>
+        <v>1207.617493606764</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>-7338.855356418931</v>
+        <v>1069.59609909002</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>-2031.420407505945</v>
+        <v>848.3629757749726</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>-53.26916582018634</v>
+        <v>-56.57144686961616</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>-429.719285109568</v>
+        <v>-243.1796128478878</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>-58.38352038210314</v>
+        <v>-107.7216559477238</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>-272.1764826261218</v>
+        <v>200.2836708948369</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>-198.4644335005844</v>
+        <v>-55.43470247318428</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>1208.443664910113</v>
+        <v>182.6811849970582</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>1240.947788735248</v>
+        <v>235.478763115918</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>2180.33396579995</v>
+        <v>150.0018983565305</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>-61.70875633524159</v>
+        <v>-84.65459623748681</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>5482.222262406707</v>
+        <v>975.5744355064141</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>-3025.163354244864</v>
+        <v>92.49016556836388</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>-3354.630932299837</v>
+        <v>4.850316319099801</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>3006.179521790479</v>
+        <v>122.3145820553346</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>954.4427815390335</v>
+        <v>168.6988774098444</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>1246.474839391833</v>
+        <v>188.5259842932484</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>1641.161515890795</v>
+        <v>474.0241230798239</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>-361.7493842712638</v>
+        <v>115.3246385588478</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>97.23345351616844</v>
+        <v>120.6630192772909</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>1233.503745657138</v>
+        <v>248.1118422906653</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>1259.43683450534</v>
+        <v>318.3052757910221</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>-16.04636767762987</v>
+        <v>-58.59690644341712</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>1421.733008271862</v>
+        <v>523.0012438827301</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>1231.495343092422</v>
+        <v>330.9977539097773</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>1540.54469883611</v>
+        <v>572.1773408911495</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>1579.952708699796</v>
+        <v>700.5744745706005</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>1502.49673860405</v>
+        <v>661.1209354430642</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>-60805.45600652086</v>
+        <v>76.10176589337345</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>-62060.26451284286</v>
+        <v>110.0740964383404</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>-61052.8926601655</v>
+        <v>-43.46195803835833</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>-60406.3731251725</v>
+        <v>488.7445506472644</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>-63174.42664611954</v>
+        <v>344.5717599131317</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>63672.06249381856</v>
+        <v>-117.1636295488436</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>-51907.53366599275</v>
+        <v>-113.0726895469792</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>-53692.94350098039</v>
+        <v>-612.4831212456547</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>-53257.87876056931</v>
+        <v>-257.0655932874671</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>-51091.56722250313</v>
+        <v>-177.8365246494876</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>-50899.8619671645</v>
+        <v>-119.5366480131302</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>-50948.12569560677</v>
+        <v>-64.34129900144909</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>-51928.70446837266</v>
+        <v>-31.72544417815319</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>-54175.88200893237</v>
+        <v>-196.9461136920934</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>-53736.45180830042</v>
+        <v>-178.5961607362714</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>-54984.63008656706</v>
+        <v>378.1663915040198</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>-55277.2690914494</v>
+        <v>106.1201142904728</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>-48700.82668825822</v>
+        <v>-418.0005815208447</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>-50075.39791504665</v>
+        <v>-623.4127584899388</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>-50877.71448602031</v>
+        <v>-518.0239044742491</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>-46097.80184570808</v>
+        <v>-716.1109941063531</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>-46964.62510964565</v>
+        <v>-846.714313047833</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>-45089.00766983237</v>
+        <v>-824.5111321409267</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>-44947.61134674039</v>
+        <v>-771.13724517557</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>-39988.45623634795</v>
+        <v>-301.0465764620334</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>42766.00150137037</v>
+        <v>468.846771181352</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>403.1072679836582</v>
+        <v>69.48138611361372</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>-396.153785032202</v>
+        <v>170.5378886486746</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>-60676.94449802825</v>
+        <v>-757.4518091563973</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>-60715.63406119579</v>
+        <v>-829.9612865186529</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>-64317.15279889073</v>
+        <v>-780.2064149875679</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>-64792.45293658922</v>
+        <v>-995.1671801309998</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>-65317.88703375412</v>
+        <v>-149.6802584778402</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>-65747.59344966632</v>
+        <v>-568.9665160942162</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>921.639977696396</v>
+        <v>-358.1665095281391</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>389.0358109230201</v>
+        <v>-518.7522310487369</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>-511.102804841316</v>
+        <v>-751.702040069458</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>-110.3020538907348</v>
+        <v>-445.8438367757167</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>-520.5502852573978</v>
+        <v>-646.2084019185061</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>-255.0277303742537</v>
+        <v>-549.3731121524198</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>-910.2481979302692</v>
+        <v>-419.5784350539609</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>-895.7861042303273</v>
+        <v>-494.529784128299</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>-543.3257564952908</v>
+        <v>-339.3443298973527</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>-622.9014101912275</v>
+        <v>-254.7789038923873</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>-60895.47847105091</v>
+        <v>-601.3142031357993</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>-58351.50359100624</v>
+        <v>-479.2683072987292</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>-58121.76070662417</v>
+        <v>-472.2549634695877</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>-63185.22709826731</v>
+        <v>-497.8179893945792</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>-63075.41906224677</v>
+        <v>-233.6837690673404</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>-63046.56977817711</v>
+        <v>-197.1451115503566</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>3634.338246249179</v>
+        <v>60.43826643060896</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>3296.985042464272</v>
+        <v>100.6804504917654</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>3342.447813566642</v>
+        <v>151.7556221195771</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>3242.603745990358</v>
+        <v>75.77171169397526</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>3471.798244259083</v>
+        <v>220.6388013278092</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>1287.93207996687</v>
+        <v>58.08182637302828</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>3648.80205561165</v>
+        <v>581.5281282540867</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>-54703.36284469137</v>
+        <v>639.6659889662729</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>-72223.12679813978</v>
+        <v>-91.07481961229109</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>69371.30443903081</v>
+        <v>254.5099800638703</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>-73876.94210572295</v>
+        <v>896.3584048285204</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>-73373.90451060863</v>
+        <v>989.19660834627</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>-73849.6963704665</v>
+        <v>520.2201527114578</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>-80450.2260066749</v>
+        <v>397.8895894449599</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>-80925.66004764361</v>
+        <v>367.0486190814532</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>-80831.49905943872</v>
+        <v>428.5230897468647</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>5458.598092954115</v>
+        <v>711.825924844066</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>5560.93314563788</v>
+        <v>820.9515961276214</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>5494.6570561133</v>
+        <v>781.5643665946634</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>-49058.99560961656</v>
+        <v>1357.040107415121</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>-49456.18754358679</v>
+        <v>1725.141314925012</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>59400.34768087484</v>
+        <v>-1951.79448092534</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>3615.367518953476</v>
+        <v>-67.04297713258234</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>-1195.696761240588</v>
+        <v>807.270846482221</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>3242.772031036525</v>
+        <v>-394.8614470227326</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>3195.256612730814</v>
+        <v>-199.8545711261784</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>2867.927671192437</v>
+        <v>-442.131243518556</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>1894.523705766278</v>
+        <v>-706.9077705204746</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>1807.214615861551</v>
+        <v>-328.2557013933277</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>3006.607757336752</v>
+        <v>-142.9777950001298</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>3748.986642046582</v>
+        <v>-294.2557949984668</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>2910.110127021846</v>
+        <v>-467.8115428519493</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>3111.018121283609</v>
+        <v>-295.6164261356607</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>3679.291764280094</v>
+        <v>-275.7766534647608</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>2958.797290633112</v>
+        <v>-172.8961703729555</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>2865.32728423134</v>
+        <v>-252.1720041476468</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>-77320.62163005034</v>
+        <v>81.74568147718665</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>-62767.95693794269</v>
+        <v>-467.6741560251085</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>-62856.29798933925</v>
+        <v>-632.8378093556809</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>-62523.50516807375</v>
+        <v>-466.0614566686327</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>-62727.19224887715</v>
+        <v>-540.3792845208465</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>-62959.06511913069</v>
+        <v>-598.4495240505493</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>5867.138747758211</v>
+        <v>250.4988471220598</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>3317.677219075654</v>
+        <v>-162.2693903830125</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>2105.444056993915</v>
+        <v>-336.9875848909543</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>450.2181948548036</v>
+        <v>-428.6412416076184</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>1082.009922850655</v>
+        <v>-484.5706142844476</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>2252.987537195151</v>
+        <v>-78.07620789549213</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>2173.694225250227</v>
+        <v>48.5212071288552</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>2110.132311397542</v>
+        <v>-53.55438556174489</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>3676.368786729018</v>
+        <v>-173.8067370434722</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>3585.201993948066</v>
+        <v>-188.698535434674</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>2871.108678502259</v>
+        <v>-245.7006008778686</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>3424.465305647711</v>
+        <v>153.5271354450958</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>408.5284890715231</v>
+        <v>-305.2740095401299</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>2185.143023333315</v>
+        <v>51.22855216872587</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>2047.252031341452</v>
+        <v>114.2456264729907</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>2973.368952204579</v>
+        <v>284.1094522179517</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>3412.353359968442</v>
+        <v>-121.3987913532311</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>31032.79848658621</v>
+        <v>-227.3175155646977</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>30893.40515459322</v>
+        <v>-197.7994016274283</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>28439.94028596287</v>
+        <v>-112.8512157043722</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>29197.4047581399</v>
+        <v>-317.2427941174733</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>29035.97190310188</v>
+        <v>-271.1910516416937</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>29155.84321746047</v>
+        <v>-214.0019706283401</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>26511.34316295659</v>
+        <v>-254.2577432281027</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>17358.24985896407</v>
+        <v>-47.23145061339491</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>-1021.494207331274</v>
+        <v>-107.4583336124402</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>30259.83719080457</v>
+        <v>-252.4206228623638</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>27363.18849675852</v>
+        <v>-199.5132739959399</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>27789.01999422626</v>
+        <v>-102.6407576895163</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>25086.49565815126</v>
+        <v>-158.4476256020587</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>24878.49105409051</v>
+        <v>22.72197719991837</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>-953.3599839892365</v>
+        <v>-12.28445328837198</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>28098.80146135837</v>
+        <v>-132.9047839125476</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>28851.87971246705</v>
+        <v>15.55497259985355</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>27362.0090511862</v>
+        <v>450.454049301511</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>2801.407548157481</v>
+        <v>299.2335163047049</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>2451.115540787132</v>
+        <v>213.5723495453878</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>32602.4606074973</v>
+        <v>682.8287944236922</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>20927.61143276509</v>
+        <v>895.2474139456798</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>-1685.40806651809</v>
+        <v>866.791243416873</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>-1036.247669879524</v>
+        <v>890.4259621953976</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>-528.0076333882103</v>
+        <v>907.0731723346942</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>173.4839256136722</v>
+        <v>941.1396829037335</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>7423.361609825116</v>
+        <v>924.4200346453431</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>1131.428524583207</v>
+        <v>876.7540484325783</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>322.4370029316153</v>
+        <v>1216.994143156704</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>129.4821055735591</v>
+        <v>1206.769707132568</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>4515.937721955638</v>
+        <v>1124.992367466901</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>4562.857583015804</v>
+        <v>1165.85748835337</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>6570.269934812061</v>
+        <v>1249.12960255309</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>6492.060009332882</v>
+        <v>1133.567720716985</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>842.6259688637238</v>
+        <v>783.9508865653161</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>33548.73434231399</v>
+        <v>1109.621854707874</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>31197.7868340044</v>
+        <v>903.0175782435548</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>-1657.026416520848</v>
+        <v>1150.774295345694</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>-1925.01685234803</v>
+        <v>1145.471219050125</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>-1593.508726672713</v>
+        <v>1102.126409172454</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>-1340.647044382169</v>
+        <v>1177.217807094282</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>-906.7617285593037</v>
+        <v>1194.348553891006</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>-426.1702139664978</v>
+        <v>1196.756692160164</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>-424.9853194994653</v>
+        <v>1209.618765178132</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>218.7563984829737</v>
+        <v>1222.353594355591</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>4278.969574996601</v>
+        <v>1119.818766623243</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>940.1060369288008</v>
+        <v>783.428813228212</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>-23801.48318201219</v>
+        <v>1287.558556329204</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>-24019.27296326749</v>
+        <v>1316.756310661816</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>-25288.83611298444</v>
+        <v>3677.72142378441</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>27971.67055480168</v>
+        <v>-1636.835893848684</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>26476.01584097429</v>
+        <v>-145.284936637339</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>-23134.59830926514</v>
+        <v>2097.870467267212</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>-44182.62490387444</v>
+        <v>1680.839443016031</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>-44614.88554327848</v>
+        <v>2417.474229851884</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>-44005.25160959183</v>
+        <v>2575.007140426181</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>46195.50729895832</v>
+        <v>2511.440885971757</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>40587.29721514264</v>
+        <v>-2488.378050969757</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>745.5521052788687</v>
+        <v>-107.4639965564955</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>694.1623105411554</v>
+        <v>-61.67034331164405</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>461.91505786741</v>
+        <v>16.8655372713868</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>440.0212253041752</v>
+        <v>-20.726294094736</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>-911.1154032824097</v>
+        <v>105.3086498606349</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>-1221.399095763171</v>
+        <v>108.8238310832087</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>-1430.352492281837</v>
+        <v>-177.2969717443899</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>404.0475535680217</v>
+        <v>-125.9737552158659</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>444.2559983382791</v>
+        <v>-127.7300307797959</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>616.0801916084538</v>
+        <v>-295.5072670506034</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>2308.411578639195</v>
+        <v>248.5428641532371</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>31200.50563739586</v>
+        <v>1388.295244682487</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>371.8214137252124</v>
+        <v>79.54429285466612</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>1369.424766844208</v>
+        <v>316.7594714554131</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>6949.520894363042</v>
+        <v>1394.311028608433</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>43272.18371283742</v>
+        <v>1469.464586372527</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>43161.73434580875</v>
+        <v>1504.609528260057</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>44965.52626118184</v>
+        <v>1567.302058902228</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>45817.30141370584</v>
+        <v>1262.183875247963</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>44851.73448693314</v>
+        <v>1194.225201288833</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>42794.07785211189</v>
+        <v>1396.165141432683</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>39817.34372605288</v>
+        <v>1363.935189072103</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>35974.94652376873</v>
+        <v>1307.938754299762</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>6881.675629693498</v>
+        <v>1698.911458635128</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>-32027.3291136604</v>
+        <v>913.8018386000359</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>-30575.74995556257</v>
+        <v>943.9615195707929</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>-33005.55744926292</v>
+        <v>850.2733834210532</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>48159.87289508732</v>
+        <v>1988.527055289473</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>42835.44315461927</v>
+        <v>844.5178435304272</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>42320.68697508901</v>
+        <v>1114.631669486861</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>42715.67858260446</v>
+        <v>1199.934604562402</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>43644.25792138996</v>
+        <v>1471.211067272756</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>43545.06978707716</v>
+        <v>1628.602057006965</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>45457.37039442166</v>
+        <v>1482.563984570705</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>45238.59378453386</v>
+        <v>1315.770911723579</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>44143.19706578356</v>
+        <v>1097.494236920406</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>44331.9258537639</v>
+        <v>1251.670885808771</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>38083.28745413481</v>
+        <v>1649.504299737039</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>35561.07490240392</v>
+        <v>1435.72293485102</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>542.4019372208876</v>
+        <v>1748.772454490861</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>19039.29534267216</v>
+        <v>257.5230180377651</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>-16450.20450726449</v>
+        <v>-170.8028365027877</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>-16715.36395861079</v>
+        <v>-281.9534096067132</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>17717.40278719423</v>
+        <v>191.9831563138227</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>-17292.36931432409</v>
+        <v>-45.50104826483612</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>-16750.12630221334</v>
+        <v>-67.36808991704908</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>-24512.72017573458</v>
+        <v>-357.93928945068</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>-24314.57229718191</v>
+        <v>-307.4994597240988</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>-23800.78856735655</v>
+        <v>-331.9588395292481</v>
       </c>
     </row>
   </sheetData>
@@ -2098,1152 +2098,1152 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>-446.7921331650156</v>
+        <v>-155.9716533801915</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>674.1350065442542</v>
+        <v>316.804155489149</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>31.38466307169678</v>
+        <v>59.36129116220692</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>48.00407969663507</v>
+        <v>-15.98497120086364</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>-5438.335967180993</v>
+        <v>-684.9126760444069</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>-4426.403818486438</v>
+        <v>130.8206361122739</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>-1838.851703803405</v>
+        <v>1930.608040618585</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>-2286.734001919662</v>
+        <v>1468.43726039193</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>-1771.005097214934</v>
+        <v>2280.367541560284</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>-1417.443554330769</v>
+        <v>2377.635579446038</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>-25.33584679402043</v>
+        <v>1223.534838161579</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>6961.598103989685</v>
+        <v>961.4328971849624</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>6578.352074450982</v>
+        <v>974.1550792058417</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>6995.933520205477</v>
+        <v>1064.030943163198</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>-6037.953211479909</v>
+        <v>-736.7246841526306</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>-6047.903916861592</v>
+        <v>-822.8818121108519</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>643.8085838061568</v>
+        <v>717.7934199945995</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1410.607724016222</v>
+        <v>1060.965187826414</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1331.549649612138</v>
+        <v>1367.209431660888</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>980.7562419398701</v>
+        <v>1032.882565303911</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>57.67806793261152</v>
+        <v>98.15599068901058</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>-81.37410554656269</v>
+        <v>3.543476513063692</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>-72.90112768848724</v>
+        <v>89.36169673571959</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>-334.4787784812466</v>
+        <v>-160.6952000343611</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>-2385.815048981724</v>
+        <v>126.3770324183461</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>-1094.751810206033</v>
+        <v>584.6076716092466</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>-1215.891065108554</v>
+        <v>435.2774234491512</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>-2031.633429978755</v>
+        <v>587.8699193968164</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>-2753.857986749549</v>
+        <v>-362.3582318826452</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>-2464.602744080427</v>
+        <v>-23.70326233199103</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>-3179.095514499279</v>
+        <v>-593.4246679124649</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>-3208.924759275429</v>
+        <v>-625.6799105979949</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>3818.95463315277</v>
+        <v>776.7587312315542</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>-682.3644303428772</v>
+        <v>571.7563312326226</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>1048.007402026373</v>
+        <v>-204.315396090426</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>301.4736435780032</v>
+        <v>-559.8766252767882</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>15.87358727291455</v>
+        <v>879.7353148719716</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>-2374.75283507066</v>
+        <v>706.3569473351374</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>-2301.335290231942</v>
+        <v>506.8687300070026</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>1514.628366357856</v>
+        <v>366.4927808326227</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>-3509.615267882419</v>
+        <v>426.116707504332</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>-4246.6608449012</v>
+        <v>164.3588221142213</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>4062.382537269304</v>
+        <v>-270.9509160051385</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>-343.3450547120176</v>
+        <v>-313.5268071488562</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>-667.7824528916568</v>
+        <v>264.3059770772796</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>-663.3653815341466</v>
+        <v>302.4044077407001</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>-649.8395315011569</v>
+        <v>268.9064138433297</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>-799.0032335058604</v>
+        <v>428.0542703365442</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>1006.929968586527</v>
+        <v>-301.0900941941679</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>-913.8397640275774</v>
+        <v>326.5839562830366</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>1065.368749834856</v>
+        <v>-245.7643727536564</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>923.810366014269</v>
+        <v>27.11271967553812</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>-1246.058440158046</v>
+        <v>614.8597987322244</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>-1261.709279975353</v>
+        <v>683.2396421265958</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>2546.598932051464</v>
+        <v>892.82194850453</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>-2317.462042745088</v>
+        <v>-736.3989524592533</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>-2143.411698737942</v>
+        <v>-472.1832674422969</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>-3429.828449636034</v>
+        <v>-405.7245511723614</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>-1617.187346914733</v>
+        <v>134.9594911752074</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>-1707.801346676168</v>
+        <v>2.682793440352079</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>-1592.295976223539</v>
+        <v>253.5340333558685</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>-1517.377147797747</v>
+        <v>328.2205731174886</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>3097.537123626395</v>
+        <v>-115.9736653699038</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>-1822.398462232963</v>
+        <v>-266.7226623391598</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>-628.1892138472194</v>
+        <v>427.62988517134</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>-851.5163208941522</v>
+        <v>157.7262574692386</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>-684.9782042587553</v>
+        <v>334.6854208451796</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>-689.2641543390037</v>
+        <v>773.8889909156014</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>-1658.647719987267</v>
+        <v>-432.6186118653186</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>-2297.157185773041</v>
+        <v>-449.8028396860273</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>-2066.42560570254</v>
+        <v>426.64991520581</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>2345.260383719991</v>
+        <v>-146.1423641061974</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>1917.32729342618</v>
+        <v>-64.18432648078442</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>1672.909428155504</v>
+        <v>-809.383310909187</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>-1136.072876864427</v>
+        <v>1142.240669529272</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>-1034.410244858191</v>
+        <v>1440.135619386255</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>-481.9875865052568</v>
+        <v>-261.3278304291375</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>-2271.061481152582</v>
+        <v>1387.382219174359</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>-464.44142784004</v>
+        <v>-178.9295554450537</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>3241.991568006513</v>
+        <v>-542.7104747094545</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>3250.64865883198</v>
+        <v>-532.0110179761577</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>1257.778480236882</v>
+        <v>-623.7330503556959</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>1247.032177549445</v>
+        <v>-642.7088876881135</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>1583.892424463653</v>
+        <v>-630.08319991605</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>1485.770858469354</v>
+        <v>-735.3630382283663</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>839.7753104772164</v>
+        <v>-842.8891075747952</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>820.1419190425404</v>
+        <v>-646.3449851343321</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>110.9020841258243</v>
+        <v>-1351.558060047019</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>-1852.649942392972</v>
+        <v>-950.8344425187406</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>1697.321580925432</v>
+        <v>-279.5481169867544</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>1649.545579173511</v>
+        <v>-388.2949503734799</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>412.5118345637984</v>
+        <v>-460.8028201478919</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>-4.684731537236132</v>
+        <v>24.15786166210705</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>-257.1692623120076</v>
+        <v>-191.285518133947</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>-66.36540227425337</v>
+        <v>-31.3206509475222</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>315.2510315485187</v>
+        <v>115.8946414287049</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>-3.033055322392245</v>
+        <v>55.27302713400498</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>-99.98906757299811</v>
+        <v>-10.65640983821207</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>63.81542325215922</v>
+        <v>126.7137950296369</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>-2502.576598087498</v>
+        <v>-26.52348426144751</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>-2347.46150611448</v>
+        <v>97.28099095439165</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>-2190.662266716649</v>
+        <v>120.7260880284895</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>-2122.571467446047</v>
+        <v>276.5899505404508</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>165.3537417434565</v>
+        <v>132.2981625078806</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>536.6631939356905</v>
+        <v>308.3786616814328</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>841.0290991697514</v>
+        <v>292.0038133063976</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>59.05299585410739</v>
+        <v>140.0871954401449</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>-15390.39434164582</v>
+        <v>-95.5100618263581</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>-15039.32016116627</v>
+        <v>134.7068573752684</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>-14451.36515253874</v>
+        <v>172.4154172156686</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>-15196.85714380926</v>
+        <v>-172.2771783716254</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>-15653.67886159812</v>
+        <v>-361.1807509612462</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>-90.82417923590172</v>
+        <v>-71.35363281452159</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>80.49396510487701</v>
+        <v>-74.71352164071978</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>-63.97900369352465</v>
+        <v>-120.5345500411319</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>113.7110648321083</v>
+        <v>-32.47221117859028</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>42.05400911135023</v>
+        <v>-25.76004818917155</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>-45.04768173559683</v>
+        <v>22.295733127213</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>-84.1749137595548</v>
+        <v>34.30580212035841</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>434.759920909467</v>
+        <v>-355.6676104471539</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>-444.605627398361</v>
+        <v>-526.2278849854915</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>-557.7581565431009</v>
+        <v>-610.0333957041613</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>-551.7448394540805</v>
+        <v>-706.3190488132411</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>13183.82816898718</v>
+        <v>665.8337651667821</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>11347.37636577449</v>
+        <v>-304.2060011340186</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>11370.51968960688</v>
+        <v>-283.4054807679713</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>-16113.75257767358</v>
+        <v>35.48446845235266</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>15841.99405622133</v>
+        <v>173.850885717482</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>-15137.25954689809</v>
+        <v>838.9155999191732</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>-15026.91467127534</v>
+        <v>822.4809934826685</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>614.5462947644073</v>
+        <v>-276.7247348688192</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>553.124998888621</v>
+        <v>-285.1131509852165</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>537.6842919736739</v>
+        <v>-169.9522974498082</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>985.2486920389756</v>
+        <v>-105.7005410711486</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>890.1426702217112</v>
+        <v>-129.8354543928564</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>850.5676283392471</v>
+        <v>-116.1188233098269</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>722.0385955998668</v>
+        <v>-35.927885965842</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>-17050.28945617439</v>
+        <v>-1488.648704805894</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>-16398.29006526284</v>
+        <v>-1029.195212060178</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>702.7023859046324</v>
+        <v>-491.6835374198574</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>188.8588568637634</v>
+        <v>-682.0463535315753</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>362.149219478249</v>
+        <v>-447.4720428287321</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>445.268906808538</v>
+        <v>-401.8921973937979</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>373.1869051483366</v>
+        <v>-358.6539737521297</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>414.1559501048749</v>
+        <v>-295.0937707877927</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>1024.658002463899</v>
+        <v>-287.9585085808971</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>872.8772985758783</v>
+        <v>-419.179137248609</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>888.8407788846505</v>
+        <v>-392.5712356602095</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>731.6715105397409</v>
+        <v>-380.2131808954196</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>888.2606563379496</v>
+        <v>-341.8863715867558</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>840.3401977248391</v>
+        <v>-372.8772853939203</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>624.9011683369097</v>
+        <v>-261.0935892710616</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>644.1579743514778</v>
+        <v>-127.0022101486752</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>692.9564167199342</v>
+        <v>-62.44493879923333</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>1370.45814783133</v>
+        <v>20.62328022564123</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>1033.704131165426</v>
+        <v>-295.6125978644586</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>798.2380530698134</v>
+        <v>-350.702983230292</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>750.2372887168519</v>
+        <v>-411.91706344533</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>17966.91687536884</v>
+        <v>1128.489641265836</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>-16274.78254014211</v>
+        <v>-829.5891842241792</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>-16967.05907836029</v>
+        <v>-304.1368756456202</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>-16781.83276989167</v>
+        <v>-247.0407052941624</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>532.388927876897</v>
+        <v>-466.4491096110773</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>769.6870269192341</v>
+        <v>-182.0426749773089</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>1466.3565432875</v>
+        <v>65.25689377159641</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>1144.07246554405</v>
+        <v>-236.5041199445015</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>-10905.80884827535</v>
+        <v>353.3553453425752</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>8081.525661442985</v>
+        <v>-312.2632445991318</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>8058.613488966603</v>
+        <v>-284.1165117622405</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>8212.79271134058</v>
+        <v>-164.0913097759065</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>8057.958760567244</v>
+        <v>-359.5014763309329</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>8133.715313606991</v>
+        <v>-318.0914233708016</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>8181.331865241882</v>
+        <v>-272.4098299848122</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>-8969.159011353999</v>
+        <v>606.6767468964886</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>8451.170832503247</v>
+        <v>-137.9968817730007</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>8498.661853865311</v>
+        <v>-92.51128840018491</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>8417.400089099683</v>
+        <v>-47.17930827935882</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>9176.650388228263</v>
+        <v>647.7251085875758</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>8644.279037067592</v>
+        <v>704.2241348212215</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>711.2322233032537</v>
+        <v>836.4698697594041</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>1269.879015245019</v>
+        <v>867.9968407774611</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>4269.208732992021</v>
+        <v>-1193.840918121556</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>4294.115827948426</v>
+        <v>-1203.908257665335</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>4630.589182400159</v>
+        <v>-872.5485524988217</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>4378.858566295108</v>
+        <v>-716.3848615564584</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>3975.001193330538</v>
+        <v>-650.2049288846802</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>3844.119096480947</v>
+        <v>-664.2606972441999</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>3696.822897513401</v>
+        <v>-1409.578606623631</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>2627.220193146817</v>
+        <v>-2020.465622208352</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>-7680.896541563665</v>
+        <v>1579.268467291663</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>7234.287069508102</v>
+        <v>-1536.579933445604</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>-6359.186085863698</v>
+        <v>1303.618099213312</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>-5701.720597898799</v>
+        <v>1773.796276009549</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>-5650.989438577915</v>
+        <v>1685.464589856051</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>-4836.430933921918</v>
+        <v>1337.398432399597</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>11524.00512745783</v>
+        <v>1781.522683758111</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>11433.44770142349</v>
+        <v>1410.08357507517</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>2113.777432681525</v>
+        <v>766.5119560497506</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>2202.089990180386</v>
+        <v>-2464.121598701417</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>361.591679519976</v>
+        <v>65.23227551280428</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>-209.808426564139</v>
+        <v>66.2320148247757</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>-258.8052617467645</v>
+        <v>-31.09150000162277</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>-234.6511676361942</v>
+        <v>-37.83905631307456</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>382.3243929939034</v>
+        <v>163.6066620441055</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>230.9659990339024</v>
+        <v>-87.60754064067009</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>319.7117390570044</v>
+        <v>-7.706267477877158</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>-97.65445149970654</v>
+        <v>213.0631445569742</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>321.9401670376308</v>
+        <v>-67.56769763460737</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>-15.70182175134904</v>
+        <v>-263.6726943504501</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>52.56862247030742</v>
+        <v>284.6237542425838</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>1163.253726960111</v>
+        <v>614.4415022912683</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>1518.017491998433</v>
+        <v>419.435902613533</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>2815.522028372557</v>
+        <v>1341.036567902796</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>2782.841778514142</v>
+        <v>1307.233921393821</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>3348.549475729858</v>
+        <v>1357.472420867636</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>11235.78618177056</v>
+        <v>1427.741269882967</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>11121.94905213408</v>
+        <v>1458.515782401076</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>10266.45028683328</v>
+        <v>1443.18982673391</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>1903.137610703635</v>
+        <v>1511.742633660552</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>1843.257555421068</v>
+        <v>1498.719854344495</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>471.9048079435444</v>
+        <v>189.5581471292882</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>-5331.194827536196</v>
+        <v>974.799087344236</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>-4910.379643359619</v>
+        <v>1037.548028176686</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>4837.021167349404</v>
+        <v>187.3011248792616</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>4905.745130582453</v>
+        <v>182.477633612066</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>4926.636210886103</v>
+        <v>172.1410323514065</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>-5135.124613103801</v>
+        <v>-248.5097877100411</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>-4886.978844385989</v>
+        <v>-297.0028979272719</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>-3933.454290717635</v>
+        <v>749.5635023661077</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>-3949.811373433931</v>
+        <v>773.3786676152351</v>
       </c>
     </row>
   </sheetData>
